--- a/sriramModel-nelson-melancholic-patientID_17-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.809065218372168</v>
+        <v>6.812972429293938</v>
       </c>
       <c r="C2">
-        <v>6.813212351462893</v>
+        <v>6.812703449337664</v>
       </c>
       <c r="D2">
-        <v>6.810734822798266</v>
+        <v>6.808308772289196</v>
       </c>
       <c r="E2">
-        <v>6.810828438034356</v>
+        <v>6.811998343933046</v>
       </c>
       <c r="F2">
-        <v>6.810602402953172</v>
+        <v>6.816807504596605</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.628895538395955</v>
+        <v>6.63596632724999</v>
       </c>
       <c r="C3">
-        <v>6.636241973989411</v>
+        <v>6.635244141919945</v>
       </c>
       <c r="D3">
-        <v>6.631160614666303</v>
+        <v>6.627115488746451</v>
       </c>
       <c r="E3">
-        <v>6.631632762171241</v>
+        <v>6.63389124770517</v>
       </c>
       <c r="F3">
-        <v>6.63091842680468</v>
+        <v>6.643867620423205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.459234713987683</v>
+        <v>6.468764446650985</v>
       </c>
       <c r="C4">
-        <v>6.468880751676166</v>
+        <v>6.467421722002105</v>
       </c>
       <c r="D4">
-        <v>6.461073260229162</v>
+        <v>6.456255079744717</v>
       </c>
       <c r="E4">
-        <v>6.462176504829809</v>
+        <v>6.465482206058698</v>
       </c>
       <c r="F4">
-        <v>6.46074455176809</v>
+        <v>6.480984767393971</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.299836558731231</v>
+        <v>6.31115727677189</v>
       </c>
       <c r="C5">
-        <v>6.310929392462014</v>
+        <v>6.309042938570542</v>
       </c>
       <c r="D5">
-        <v>6.300276255806605</v>
+        <v>6.295568697397172</v>
       </c>
       <c r="E5">
-        <v>6.30223433952476</v>
+        <v>6.306581864034299</v>
       </c>
       <c r="F5">
-        <v>6.299886440295319</v>
+        <v>6.327970906045922</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.150464412498505</v>
+        <v>6.162942988778687</v>
       </c>
       <c r="C6">
-        <v>6.162196275430311</v>
+        <v>6.159921252335852</v>
       </c>
       <c r="D6">
-        <v>6.148580617719685</v>
+        <v>6.144902633283158</v>
       </c>
       <c r="E6">
-        <v>6.151591294219664</v>
+        <v>6.157007950681542</v>
       </c>
       <c r="F6">
-        <v>6.148157723025438</v>
+        <v>6.184644420879012</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.01089085671828</v>
+        <v>6.023927208519929</v>
       </c>
       <c r="C7">
-        <v>6.022497358298049</v>
+        <v>6.019876423502911</v>
       </c>
       <c r="D7">
-        <v>6.005804599326066</v>
+        <v>6.00410833182101</v>
       </c>
       <c r="E7">
-        <v>6.010042256371924</v>
+        <v>6.016585038681933</v>
       </c>
       <c r="F7">
-        <v>6.005379798993694</v>
+        <v>6.050829656261341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.880897440605954</v>
+        <v>5.893922857219716</v>
       </c>
       <c r="C8">
-        <v>5.891655839302908</v>
+        <v>5.888734444672419</v>
       </c>
       <c r="D8">
-        <v>5.871773509271625</v>
+        <v>5.873042209450294</v>
       </c>
       <c r="E8">
-        <v>5.877391570715563</v>
+        <v>5.88514437306613</v>
       </c>
       <c r="F8">
-        <v>5.87138153626136</v>
+        <v>5.92635695494327</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.760274352263553</v>
+        <v>5.772749941188432</v>
       </c>
       <c r="C9">
-        <v>5.769501847248518</v>
+        <v>5.76632736176212</v>
       </c>
       <c r="D9">
-        <v>5.74631948071095</v>
+        <v>5.751565446065885</v>
       </c>
       <c r="E9">
-        <v>5.753452601757817</v>
+        <v>5.762523672351248</v>
       </c>
       <c r="F9">
-        <v>5.745998902941023</v>
+        <v>5.811062365403388</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.648820079677542</v>
+        <v>5.660235332930077</v>
       </c>
       <c r="C10">
-        <v>5.65587218972123</v>
+        <v>5.652493070654142</v>
       </c>
       <c r="D10">
-        <v>5.629281240740456</v>
+        <v>5.639543756894608</v>
       </c>
       <c r="E10">
-        <v>5.638047323088196</v>
+        <v>5.648566925039444</v>
       </c>
       <c r="F10">
-        <v>5.629074690623931</v>
+        <v>5.704787375465448</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.546341140367208</v>
+        <v>5.556212564746048</v>
       </c>
       <c r="C11">
-        <v>5.550610090706398</v>
+        <v>5.547075114874994</v>
       </c>
       <c r="D11">
-        <v>5.520503889644514</v>
+        <v>5.53684718595469</v>
       </c>
       <c r="E11">
-        <v>5.531005931604533</v>
+        <v>5.543124166263127</v>
       </c>
       <c r="F11">
-        <v>5.520458237044332</v>
+        <v>5.607378634843445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.452651776182823</v>
+        <v>5.460521594745204</v>
       </c>
       <c r="C12">
-        <v>5.453564928418604</v>
+        <v>5.449922498788576</v>
       </c>
       <c r="D12">
-        <v>5.419838684584909</v>
+        <v>5.44334990109979</v>
       </c>
       <c r="E12">
-        <v>5.432166442977055</v>
+        <v>5.446051247941639</v>
       </c>
       <c r="F12">
-        <v>5.420005151313891</v>
+        <v>5.518687713336597</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.367573642418384</v>
+        <v>5.373008568057895</v>
       </c>
       <c r="C13">
-        <v>5.36459197391429</v>
+        <v>5.360889515767867</v>
       </c>
       <c r="D13">
-        <v>5.327142790897101</v>
+        <v>5.35892998073416</v>
       </c>
       <c r="E13">
-        <v>5.341374309323466</v>
+        <v>5.357209633327372</v>
       </c>
       <c r="F13">
-        <v>5.327577029952184</v>
+        <v>5.438570884896825</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.290935515538602</v>
+        <v>5.293525598400849</v>
       </c>
       <c r="C14">
-        <v>5.283552145386439</v>
+        <v>5.27983556154012</v>
       </c>
       <c r="D14">
-        <v>5.242279065134377</v>
+        <v>5.283469191151807</v>
       </c>
       <c r="E14">
-        <v>5.258482090007261</v>
+        <v>5.276466186911216</v>
       </c>
       <c r="F14">
-        <v>5.24304119303619</v>
+        <v>5.366888912771385</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.222573007763882</v>
+        <v>5.22193054581833</v>
       </c>
       <c r="C15">
-        <v>5.210311770500527</v>
+        <v>5.206624954905362</v>
       </c>
       <c r="D15">
-        <v>5.165115848386905</v>
+        <v>5.216852755997134</v>
       </c>
       <c r="E15">
-        <v>5.183349118684656</v>
+        <v>5.20369295210734</v>
       </c>
       <c r="F15">
-        <v>5.166270427496681</v>
+        <v>5.303506828924193</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.162328289223016</v>
+        <v>5.158086787945599</v>
       </c>
       <c r="C16">
-        <v>5.144742361373462</v>
+        <v>5.141126756509244</v>
       </c>
       <c r="D16">
-        <v>5.095526751985576</v>
+        <v>5.158969112637253</v>
       </c>
       <c r="E16">
-        <v>5.115841176334328</v>
+        <v>5.13876693758324</v>
       </c>
       <c r="F16">
-        <v>5.09714274974317</v>
+        <v>5.248293711893194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.110049813844632</v>
+        <v>5.101862996533042</v>
       </c>
       <c r="C17">
-        <v>5.086720400622152</v>
+        <v>5.083214602259987</v>
       </c>
       <c r="D17">
-        <v>5.033390445073552</v>
+        <v>5.109709660332935</v>
       </c>
       <c r="E17">
-        <v>5.055830171278265</v>
+        <v>5.081569904800872</v>
       </c>
       <c r="F17">
-        <v>5.035541176113054</v>
+        <v>5.201122467340249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.065592049656386</v>
+        <v>5.053132917007284</v>
       </c>
       <c r="C18">
-        <v>5.036127128766929</v>
+        <v>5.032766535662123</v>
       </c>
       <c r="D18">
-        <v>4.978590455602119</v>
+        <v>5.068968497444585</v>
       </c>
       <c r="E18">
-        <v>5.003193846297816</v>
+        <v>5.031988155032859</v>
       </c>
       <c r="F18">
-        <v>4.981353500615929</v>
+        <v>5.161869612032294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.028815214694261</v>
+        <v>5.011775152217219</v>
       </c>
       <c r="C19">
-        <v>4.992848340075327</v>
+        <v>4.989664895392312</v>
       </c>
       <c r="D19">
-        <v>4.931014960505498</v>
+        <v>5.036642134596232</v>
       </c>
       <c r="E19">
-        <v>4.957815499770714</v>
+        <v>4.989912320914405</v>
       </c>
       <c r="F19">
-        <v>4.934472076395374</v>
+        <v>5.130415059542599</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.999585021928801</v>
+        <v>4.977672953917127</v>
       </c>
       <c r="C20">
-        <v>4.956774184734885</v>
+        <v>4.953796080818147</v>
       </c>
       <c r="D20">
-        <v>4.890556609230774</v>
+        <v>5.01262918546183</v>
       </c>
       <c r="E20">
-        <v>4.919583682708528</v>
+        <v>4.955237158015708</v>
       </c>
       <c r="F20">
-        <v>4.894793612620858</v>
+        <v>5.106641904254267</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.977772428562671</v>
+        <v>4.950714013651826</v>
       </c>
       <c r="C21">
-        <v>4.927798980306489</v>
+        <v>4.925050407700776</v>
       </c>
       <c r="D21">
-        <v>4.857112327325969</v>
+        <v>4.996830033116338</v>
       </c>
       <c r="E21">
-        <v>4.888392005600947</v>
+        <v>4.927861336321941</v>
       </c>
       <c r="F21">
-        <v>4.862218972028283</v>
+        <v>5.090436206150974</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.963253389119521</v>
+        <v>4.930790255080347</v>
       </c>
       <c r="C22">
-        <v>4.905821030914699</v>
+        <v>4.903321968409835</v>
       </c>
       <c r="D22">
-        <v>4.830583135369063</v>
+        <v>4.989146465343704</v>
       </c>
       <c r="E22">
-        <v>4.864138819660637</v>
+        <v>4.90768723257326</v>
       </c>
       <c r="F22">
-        <v>4.836652979948527</v>
+        <v>5.081686773829471</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.955908611244325</v>
+        <v>4.917797631227626</v>
       </c>
       <c r="C23">
-        <v>4.8907424500298</v>
+        <v>4.888508487798518</v>
       </c>
       <c r="D23">
-        <v>4.810873984895276</v>
+        <v>4.989481275084059</v>
       </c>
       <c r="E23">
-        <v>4.846727034039957</v>
+        <v>4.894620719331162</v>
       </c>
       <c r="F23">
-        <v>4.818004235520594</v>
+        <v>5.080284933191249</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.955623313954869</v>
+        <v>4.911635917890536</v>
       </c>
       <c r="C24">
-        <v>4.882468990519206</v>
+        <v>4.880511182173622</v>
       </c>
       <c r="D24">
-        <v>4.79789357425569</v>
+        <v>4.997737817637336</v>
       </c>
       <c r="E24">
-        <v>4.836063863930375</v>
+        <v>4.888570952160133</v>
       </c>
       <c r="F24">
-        <v>4.80618493627573</v>
+        <v>5.086124298980803</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.962286986582852</v>
+        <v>4.912208519715738</v>
       </c>
       <c r="C25">
-        <v>4.880909878087908</v>
+        <v>4.879234622451516</v>
       </c>
       <c r="D25">
-        <v>4.791554187028685</v>
+        <v>5.013819517152033</v>
       </c>
       <c r="E25">
-        <v>4.832060592691477</v>
+        <v>4.889450153158846</v>
       </c>
       <c r="F25">
-        <v>4.801110703095427</v>
+        <v>5.099100535113752</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.975793146428874</v>
+        <v>4.9194222702924</v>
       </c>
       <c r="C26">
-        <v>4.885977652279879</v>
+        <v>4.884586584237089</v>
       </c>
       <c r="D26">
-        <v>4.791771531651782</v>
+        <v>5.037629314970744</v>
       </c>
       <c r="E26">
-        <v>4.834632386910148</v>
+        <v>4.89717339074528</v>
       </c>
       <c r="F26">
-        <v>4.802700410921689</v>
+        <v>5.119111104221592</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.996039092748559</v>
+        <v>4.933187237592196</v>
       </c>
       <c r="C27">
-        <v>4.897588010005411</v>
+        <v>4.896477909310253</v>
       </c>
       <c r="D27">
-        <v>4.798464574880783</v>
+        <v>5.069069050604251</v>
       </c>
       <c r="E27">
-        <v>4.843698071475594</v>
+        <v>4.911658350422591</v>
       </c>
       <c r="F27">
-        <v>4.810876023385058</v>
+        <v>5.146055003714868</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.022925654406293</v>
+        <v>4.953416522214591</v>
       </c>
       <c r="C28">
-        <v>4.915659652457897</v>
+        <v>4.914822370878</v>
       </c>
       <c r="D28">
-        <v>4.811555390619056</v>
+        <v>5.10803876463998</v>
       </c>
       <c r="E28">
-        <v>4.859179929966466</v>
+        <v>4.932825096332384</v>
       </c>
       <c r="F28">
-        <v>4.82556243167372</v>
+        <v>5.179832485270197</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.056356927918334</v>
+        <v>4.980026048854789</v>
       </c>
       <c r="C29">
-        <v>4.940114134174547</v>
+        <v>4.93953654013871</v>
       </c>
       <c r="D29">
-        <v>4.830969007648821</v>
+        <v>5.154435911776153</v>
       </c>
       <c r="E29">
-        <v>4.881003530527217</v>
+        <v>4.960595820578514</v>
       </c>
       <c r="F29">
-        <v>4.846687296605914</v>
+        <v>5.220344754147256</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.096240000754622</v>
+        <v>5.012934362404887</v>
       </c>
       <c r="C30">
-        <v>4.970875715699755</v>
+        <v>4.970539652738254</v>
       </c>
       <c r="D30">
-        <v>4.856633250669635</v>
+        <v>5.208154471254054</v>
       </c>
       <c r="E30">
-        <v>4.909097510196584</v>
+        <v>4.994894575005132</v>
       </c>
       <c r="F30">
-        <v>4.874180894721134</v>
+        <v>5.267493674909871</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.142484655696082</v>
+        <v>5.052062416899699</v>
       </c>
       <c r="C31">
-        <v>5.007871217823281</v>
+        <v>5.007753475867741</v>
       </c>
       <c r="D31">
-        <v>4.888478594824715</v>
+        <v>5.269083941167385</v>
       </c>
       <c r="E31">
-        <v>4.943393411131475</v>
+        <v>5.035646991640143</v>
       </c>
       <c r="F31">
-        <v>4.907975959846568</v>
+        <v>5.321181374077288</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.195003058551138</v>
+        <v>5.097333354641004</v>
       </c>
       <c r="C32">
-        <v>5.051029871199063</v>
+        <v>5.05110217160415</v>
       </c>
       <c r="D32">
-        <v>4.926438007478125</v>
+        <v>5.337108202551454</v>
       </c>
       <c r="E32">
-        <v>4.983825485547762</v>
+        <v>5.082779965578714</v>
       </c>
       <c r="F32">
-        <v>4.948007527544789</v>
+        <v>5.381309801042514</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.253709400947194</v>
+        <v>5.148672270541953</v>
       </c>
       <c r="C33">
-        <v>5.1002831654949</v>
+        <v>5.100512154434552</v>
       </c>
       <c r="D33">
-        <v>4.970446792535416</v>
+        <v>5.412104236607286</v>
       </c>
       <c r="E33">
-        <v>5.03033050791479</v>
+        <v>5.136221316795831</v>
       </c>
       <c r="F33">
-        <v>4.994212776304895</v>
+        <v>5.44778037890629</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.318519505364156</v>
+        <v>5.206005960516729</v>
       </c>
       <c r="C34">
-        <v>5.155564694096205</v>
+        <v>5.155911945918602</v>
       </c>
       <c r="D34">
-        <v>5.020442429336562</v>
+        <v>5.493940693023305</v>
       </c>
       <c r="E34">
-        <v>5.082847597041003</v>
+        <v>5.195899412560435</v>
       </c>
       <c r="F34">
-        <v>5.046530865202613</v>
+        <v>5.520493597788046</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.389350377420241</v>
+        <v>5.269262652670296</v>
       </c>
       <c r="C35">
-        <v>5.216809993618625</v>
+        <v>5.217232022228117</v>
       </c>
       <c r="D35">
-        <v>5.076364395614326</v>
+        <v>5.582476276983036</v>
       </c>
       <c r="E35">
-        <v>5.141318021466399</v>
+        <v>5.261742743075749</v>
       </c>
       <c r="F35">
-        <v>5.104902764848144</v>
+        <v>5.599348322629284</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.46611969110119</v>
+        <v>5.338371710924459</v>
       </c>
       <c r="C36">
-        <v>5.283956371971037</v>
+        <v>5.284404651524953</v>
       </c>
       <c r="D36">
-        <v>5.138153999482999</v>
+        <v>5.677557962053421</v>
       </c>
       <c r="E36">
-        <v>5.205685005266601</v>
+        <v>5.333679458698599</v>
       </c>
       <c r="F36">
-        <v>5.169271082155615</v>
+        <v>5.684241190095787</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.548745188079191</v>
+        <v>5.413263310648468</v>
       </c>
       <c r="C37">
-        <v>5.356942722082327</v>
+        <v>5.357363715703781</v>
       </c>
       <c r="D37">
-        <v>5.205754170678096</v>
+        <v>5.779019023501537</v>
       </c>
       <c r="E37">
-        <v>5.275893518691678</v>
+        <v>5.411636808181219</v>
       </c>
       <c r="F37">
-        <v>5.23957986977206</v>
+        <v>5.77506601202776</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.637143969337422</v>
+        <v>5.493868070306566</v>
       </c>
       <c r="C38">
-        <v>5.435709316767433</v>
+        <v>5.436044513181676</v>
       </c>
       <c r="D38">
-        <v>5.279109231664598</v>
+        <v>5.8866768940051</v>
       </c>
       <c r="E38">
-        <v>5.351890057291874</v>
+        <v>5.495540521044951</v>
       </c>
       <c r="F38">
-        <v>5.315774417606036</v>
+        <v>5.871712954621403</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.731231653410076</v>
+        <v>5.580116625409859</v>
       </c>
       <c r="C39">
-        <v>5.520197574632738</v>
+        <v>5.520383535722843</v>
       </c>
       <c r="D39">
-        <v>5.358164706417638</v>
+        <v>6.000330858900316</v>
       </c>
       <c r="E39">
-        <v>5.433622402330954</v>
+        <v>5.585314080472822</v>
       </c>
       <c r="F39">
-        <v>5.397801022174121</v>
+        <v>5.974067615905398</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.830921369900797</v>
+        <v>5.671939142115967</v>
       </c>
       <c r="C40">
-        <v>5.610349802276343</v>
+        <v>5.610318207538241</v>
       </c>
       <c r="D40">
-        <v>5.442866962183255</v>
+        <v>6.119759621950371</v>
       </c>
       <c r="E40">
-        <v>5.521039354539495</v>
+        <v>5.680877940195969</v>
       </c>
       <c r="F40">
-        <v>5.485606727804857</v>
+        <v>6.082009972573976</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.936122550067234</v>
+        <v>5.769264743615683</v>
       </c>
       <c r="C41">
-        <v>5.706108873836183</v>
+        <v>5.705786592651879</v>
       </c>
       <c r="D41">
-        <v>5.533162898413707</v>
+        <v>6.244718793178412</v>
       </c>
       <c r="E41">
-        <v>5.614090429621626</v>
+        <v>5.782148429383042</v>
       </c>
       <c r="F41">
-        <v>5.579139046323995</v>
+        <v>6.195413200871744</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.046739468936662</v>
+        <v>5.87202086557789</v>
       </c>
       <c r="C42">
-        <v>5.807417862905049</v>
+        <v>5.806727020502009</v>
       </c>
       <c r="D42">
-        <v>5.628999545628765</v>
+        <v>6.37493835526741</v>
       </c>
       <c r="E42">
-        <v>5.712725511907671</v>
+        <v>5.889036645441318</v>
       </c>
       <c r="F42">
-        <v>5.678345568888878</v>
+        <v>6.314142287583814</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.162669486046952</v>
+        <v>5.980132367155587</v>
       </c>
       <c r="C43">
-        <v>5.914219587058665</v>
+        <v>5.913077653754338</v>
       </c>
       <c r="D43">
-        <v>5.730323578362038</v>
+        <v>6.510120230666321</v>
       </c>
       <c r="E43">
-        <v>5.816894450185778</v>
+        <v>6.001447106817732</v>
       </c>
       <c r="F43">
-        <v>5.783173550329966</v>
+        <v>6.438052430860897</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.283800925968462</v>
+        <v>6.093520562959334</v>
       </c>
       <c r="C44">
-        <v>6.026456002595983</v>
+        <v>6.02477593331936</v>
       </c>
       <c r="D44">
-        <v>5.837080705691325</v>
+        <v>6.649936130681834</v>
       </c>
       <c r="E44">
-        <v>5.926546528227328</v>
+        <v>6.119276135483013</v>
       </c>
       <c r="F44">
-        <v>5.893569398903587</v>
+        <v>6.566987186656518</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.41001059354025</v>
+        <v>6.212102019675474</v>
       </c>
       <c r="C45">
-        <v>6.144067498240348</v>
+        <v>6.141757843138913</v>
       </c>
       <c r="D45">
-        <v>5.949214904225881</v>
+        <v>6.794025727836991</v>
       </c>
       <c r="E45">
-        <v>6.041629851655432</v>
+        <v>6.242409928002136</v>
       </c>
       <c r="F45">
-        <v>6.009478031325012</v>
+        <v>6.700776335800743</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.54116057957927</v>
+        <v>6.335787033150141</v>
       </c>
       <c r="C46">
-        <v>6.26699197082632</v>
+        <v>6.263957034212305</v>
       </c>
       <c r="D46">
-        <v>6.066667446310463</v>
+        <v>6.941995404180886</v>
       </c>
       <c r="E46">
-        <v>6.162090584293421</v>
+        <v>6.370722285236266</v>
       </c>
       <c r="F46">
-        <v>6.130842046038002</v>
+        <v>6.839233443840249</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.677094721995531</v>
+        <v>6.464477718111772</v>
       </c>
       <c r="C47">
-        <v>6.39516360234486</v>
+        <v>6.391303661425367</v>
       </c>
       <c r="D47">
-        <v>6.189375714890912</v>
+        <v>7.093417802902565</v>
       </c>
       <c r="E47">
-        <v>6.287871950668968</v>
+        <v>6.504071935730145</v>
       </c>
       <c r="F47">
-        <v>6.257600666093198</v>
+        <v>6.982153065819301</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.817634435781017</v>
+        <v>6.598065615539495</v>
       </c>
       <c r="C48">
-        <v>6.528511246546388</v>
+        <v>6.523722831132566</v>
       </c>
       <c r="D48">
-        <v>6.317271487831862</v>
+        <v>7.247832396644803</v>
       </c>
       <c r="E48">
-        <v>6.418912930472245</v>
+        <v>6.642299376796199</v>
       </c>
       <c r="F48">
-        <v>6.389688357505558</v>
+        <v>7.129307606155223</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.962573829135846</v>
+        <v>6.736428717818209</v>
       </c>
       <c r="C49">
-        <v>6.666956331075576</v>
+        <v>6.66113253315555</v>
       </c>
       <c r="D49">
-        <v>6.450278910834251</v>
+        <v>7.404747164187831</v>
       </c>
       <c r="E49">
-        <v>6.555146532010304</v>
+        <v>6.78522316782782</v>
       </c>
       <c r="F49">
-        <v>6.527033014924361</v>
+        <v>7.280443787607936</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.111674202358072</v>
+        <v>6.879427533730087</v>
       </c>
       <c r="C50">
-        <v>6.810409875348068</v>
+        <v>6.80344095431396</v>
       </c>
       <c r="D50">
-        <v>6.588311803912158</v>
+        <v>7.5636416648605</v>
       </c>
       <c r="E50">
-        <v>6.696497465087552</v>
+        <v>6.932635625386054</v>
       </c>
       <c r="F50">
-        <v>6.669553385112697</v>
+        <v>7.435278813688719</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.264658086107389</v>
+        <v>7.026900284232894</v>
       </c>
       <c r="C51">
-        <v>6.958768613153563</v>
+        <v>6.950542591165812</v>
       </c>
       <c r="D51">
-        <v>6.731270092732956</v>
+        <v>7.723971502078085</v>
       </c>
       <c r="E51">
-        <v>6.842879010238202</v>
+        <v>7.084297886056625</v>
       </c>
       <c r="F51">
-        <v>6.817155717147567</v>
+        <v>7.593496269071778</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.4212030204917</v>
+        <v>7.178656877595322</v>
       </c>
       <c r="C52">
-        <v>7.111909720747718</v>
+        <v>7.102313291707697</v>
       </c>
       <c r="D52">
-        <v>6.879035155730972</v>
+        <v>7.885174195881685</v>
       </c>
       <c r="E52">
-        <v>6.994188464009576</v>
+        <v>7.239934372057165</v>
       </c>
       <c r="F52">
-        <v>6.969729094896732</v>
+        <v>7.754741874711385</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.580935421238512</v>
+        <v>7.334471356601667</v>
       </c>
       <c r="C53">
-        <v>7.26968353268447</v>
+        <v>7.258603415455858</v>
       </c>
       <c r="D53">
-        <v>7.031463757312792</v>
+        <v>8.046676250954803</v>
       </c>
       <c r="E53">
-        <v>7.150301000756444</v>
+        <v>7.399226732037741</v>
       </c>
       <c r="F53">
-        <v>7.127138859972337</v>
+        <v>7.91861940526438</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.743425187789498</v>
+        <v>7.494072882044299</v>
       </c>
       <c r="C54">
-        <v>7.431903814786207</v>
+        <v>7.41922860639158</v>
       </c>
       <c r="D54">
-        <v>7.188380214042084</v>
+        <v>8.207901311898851</v>
       </c>
       <c r="E54">
-        <v>7.311060957748595</v>
+        <v>7.561807459624596</v>
       </c>
       <c r="F54">
-        <v>7.289217540638516</v>
+        <v>8.084687083210865</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.908181883915543</v>
+        <v>7.657135280470207</v>
       </c>
       <c r="C55">
-        <v>7.59833474497697</v>
+        <v>7.583957577604986</v>
       </c>
       <c r="D55">
-        <v>7.349566452632966</v>
+        <v>8.368278921271079</v>
       </c>
       <c r="E55">
-        <v>7.476269512700897</v>
+        <v>7.727253579882595</v>
       </c>
       <c r="F55">
-        <v>7.455752038223927</v>
+        <v>8.252455036357411</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.074653306350012</v>
+        <v>7.823265739744002</v>
       </c>
       <c r="C56">
-        <v>7.768674214828586</v>
+        <v>7.752496459003652</v>
       </c>
       <c r="D56">
-        <v>7.514749538339819</v>
+        <v>8.527253476824056</v>
       </c>
       <c r="E56">
-        <v>7.645667493656322</v>
+        <v>7.895081274380738</v>
       </c>
       <c r="F56">
-        <v>7.626466504828944</v>
+        <v>8.421384310371051</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.242227581915852</v>
+        <v>7.991993675072041</v>
       </c>
       <c r="C57">
-        <v>7.942533038444788</v>
+        <v>7.924469378453943</v>
       </c>
       <c r="D57">
-        <v>7.683586715782426</v>
+        <v>8.684292926748636</v>
       </c>
       <c r="E57">
-        <v>7.818912569114633</v>
+        <v>8.064742042753878</v>
       </c>
       <c r="F57">
-        <v>7.800999482427732</v>
+        <v>8.590888252940406</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.410239665250391</v>
+        <v>8.162761864531214</v>
       </c>
       <c r="C58">
-        <v>8.119411267361617</v>
+        <v>8.099396311866565</v>
       </c>
       <c r="D58">
-        <v>7.855648434001652</v>
+        <v>8.838896739267499</v>
       </c>
       <c r="E58">
-        <v>7.995550187966691</v>
+        <v>8.235621672693105</v>
       </c>
       <c r="F58">
-        <v>7.978875747437595</v>
+        <v>8.7603370974611</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.577982724805372</v>
+        <v>8.33492223827985</v>
       </c>
       <c r="C59">
-        <v>8.298674366168266</v>
+        <v>8.276670550825505</v>
       </c>
       <c r="D59">
-        <v>8.030400454711241</v>
+        <v>8.990602721488262</v>
       </c>
       <c r="E59">
-        <v>8.174980646156957</v>
+        <v>8.407043613182561</v>
       </c>
       <c r="F59">
-        <v>8.159475036145196</v>
+        <v>8.929066226193155</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.74472426316167</v>
+        <v>8.50773915790557</v>
       </c>
       <c r="C60">
-        <v>8.479535374769871</v>
+        <v>8.455541324914593</v>
       </c>
       <c r="D60">
-        <v>8.207188593824428</v>
+        <v>9.138992439168991</v>
       </c>
       <c r="E60">
-        <v>8.356428612904969</v>
+        <v>8.578277600044727</v>
       </c>
       <c r="F60">
-        <v>8.342004248759009</v>
+        <v>9.096388471479957</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.909726186731188</v>
+        <v>8.680402576847161</v>
       </c>
       <c r="C61">
-        <v>8.661050819876447</v>
+        <v>8.635108543094857</v>
       </c>
       <c r="D61">
-        <v>8.385229593392724</v>
+        <v>9.283695068463299</v>
       </c>
       <c r="E61">
-        <v>8.538927096906898</v>
+        <v>8.748554698122144</v>
       </c>
       <c r="F61">
-        <v>8.525484244923677</v>
+        <v>9.261610182673243</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>9.07226698022072</v>
+        <v>8.852051654486029</v>
       </c>
       <c r="C62">
-        <v>8.842139888388729</v>
+        <v>8.814338405897324</v>
       </c>
       <c r="D62">
-        <v>8.56361449189369</v>
+        <v>9.424389579122025</v>
       </c>
       <c r="E62">
-        <v>8.721330255070766</v>
+        <v>8.917088159116974</v>
       </c>
       <c r="F62">
-        <v>8.708764836256991</v>
+        <v>9.424050094673024</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.231663873100116</v>
+        <v>9.021807235794936</v>
       </c>
       <c r="C63">
-        <v>9.02163154506011</v>
+        <v>8.992104808782754</v>
       </c>
       <c r="D63">
-        <v>8.741329279044365</v>
+        <v>9.560805374746984</v>
       </c>
       <c r="E63">
-        <v>8.902365720345459</v>
+        <v>9.083099108932464</v>
       </c>
       <c r="F63">
-        <v>8.890577503808744</v>
+        <v>9.583059434786636</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.387292726852616</v>
+        <v>9.188809161315591</v>
       </c>
       <c r="C64">
-        <v>9.198335961976197</v>
+        <v>9.167254304318414</v>
       </c>
       <c r="D64">
-        <v>8.917295587381167</v>
+        <v>9.692721595957826</v>
       </c>
       <c r="E64">
-        <v>9.080723263998696</v>
+        <v>9.24584411703535</v>
       </c>
       <c r="F64">
-        <v>9.069622269935637</v>
+        <v>9.738041219444263</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.538603722782298</v>
+        <v>9.352252974789389</v>
       </c>
       <c r="C65">
-        <v>9.371125914756178</v>
+        <v>9.338682680729073</v>
       </c>
       <c r="D65">
-        <v>9.090427907694425</v>
+        <v>9.819965226138775</v>
       </c>
       <c r="E65">
-        <v>9.255159595565095</v>
+        <v>9.404641071984122</v>
       </c>
       <c r="F65">
-        <v>9.244669437449144</v>
+        <v>9.88846678315589</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.68513167911382</v>
+        <v>9.511420805350344</v>
       </c>
       <c r="C66">
-        <v>9.539009458460628</v>
+        <v>9.505405896767263</v>
       </c>
       <c r="D66">
-        <v>9.259697927013885</v>
+        <v>9.942408289630864</v>
       </c>
       <c r="E66">
-        <v>9.424590797022262</v>
+        <v>9.558890833294624</v>
       </c>
       <c r="F66">
-        <v>9.414648929957517</v>
+        <v>10.03388781102122</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.82650077039372</v>
+        <v>9.665702778333738</v>
       </c>
       <c r="C67">
-        <v>9.701178592385379</v>
+        <v>9.666610329317905</v>
       </c>
       <c r="D67">
-        <v>9.424193157069656</v>
+        <v>10.05996440960654</v>
       </c>
       <c r="E67">
-        <v>9.588150420002451</v>
+        <v>9.708091669536055</v>
       </c>
       <c r="F67">
-        <v>9.578706388900898</v>
+        <v>10.17394303935039</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.96242407091658</v>
+        <v>9.814607715732862</v>
       </c>
       <c r="C68">
-        <v>9.857028298394797</v>
+        <v>9.821675490928254</v>
       </c>
       <c r="D68">
-        <v>9.583158675856469</v>
+        <v>10.17258498089293</v>
       </c>
       <c r="E68">
-        <v>9.745207459485965</v>
+        <v>9.851845984271245</v>
       </c>
       <c r="F68">
-        <v>9.736220339273599</v>
+        <v>10.3083596543554</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10.09269896522004</v>
+        <v>9.957763983244174</v>
       </c>
       <c r="C69">
-        <v>10.00614975076575</v>
+        <v>9.970171543704929</v>
       </c>
       <c r="D69">
-        <v>9.736016670643501</v>
+        <v>10.28025510594601</v>
       </c>
       <c r="E69">
-        <v>9.895351989424327</v>
+        <v>9.989859710992993</v>
       </c>
       <c r="F69">
-        <v>9.886787967417945</v>
+        <v>10.43694984314958</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.21719964857591</v>
+        <v>10.094912579635</v>
       </c>
       <c r="C70">
-        <v>10.14830683429837</v>
+        <v>10.11183951444373</v>
       </c>
       <c r="D70">
-        <v>9.882365062793287</v>
+        <v>10.38298951834419</v>
       </c>
       <c r="E70">
-        <v>10.03836251236027</v>
+        <v>10.12193580933988</v>
       </c>
       <c r="F70">
-        <v>10.03019294884675</v>
+        <v>10.55960390999738</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.33586791629011</v>
+        <v>10.2258954166931</v>
       </c>
       <c r="C71">
-        <v>10.28340520075393</v>
+        <v>10.24656286403992</v>
       </c>
       <c r="D71">
-        <v>10.02196093274446</v>
+        <v>10.48082861159448</v>
       </c>
       <c r="E71">
-        <v>10.17416710174969</v>
+        <v>10.24796403043544</v>
       </c>
       <c r="F71">
-        <v>10.1663671142141</v>
+        <v>10.67628110711754</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.44870328883186</v>
+        <v>10.35064102670296</v>
       </c>
       <c r="C72">
-        <v>10.41146071197813</v>
+        <v>10.37433734913681</v>
       </c>
       <c r="D72">
-        <v>10.15469578327989</v>
+        <v>10.57383465646121</v>
       </c>
       <c r="E72">
-        <v>10.30280628478215</v>
+        <v>10.36790864072246</v>
       </c>
       <c r="F72">
-        <v>10.29535381864413</v>
+        <v>10.78699936838489</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10.5557532299873</v>
+        <v>10.46914978852017</v>
       </c>
       <c r="C73">
-        <v>10.53257115842669</v>
+        <v>10.49524331917407</v>
       </c>
       <c r="D73">
-        <v>10.28056846286815</v>
+        <v>10.66208828758852</v>
       </c>
       <c r="E73">
-        <v>10.42440146226643</v>
+        <v>10.48179571159475</v>
       </c>
       <c r="F73">
-        <v>10.41727667042174</v>
+        <v>10.89182499838655</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10.65710401671935</v>
+        <v>10.58147982831987</v>
       </c>
       <c r="C74">
-        <v>10.64689270633563</v>
+        <v>10.60942236234048</v>
       </c>
       <c r="D74">
-        <v>10.39965960031219</v>
+        <v>10.74568529261006</v>
       </c>
       <c r="E74">
-        <v>10.53912974008959</v>
+        <v>10.58970093478871</v>
       </c>
       <c r="F74">
-        <v>10.53231453893456</v>
+        <v>10.99086291900537</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.75287249848312</v>
+        <v>10.68773438016428</v>
       </c>
       <c r="C75">
-        <v>10.75462142770386</v>
+        <v>10.71705852271802</v>
       </c>
       <c r="D75">
-        <v>10.51210958257541</v>
+        <v>10.82473373130105</v>
       </c>
       <c r="E75">
-        <v>10.64720497576069</v>
+        <v>10.69173870103253</v>
       </c>
       <c r="F75">
-        <v>10.64068265198101</v>
+        <v>11.0842479147071</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10.84319893530287</v>
+        <v>10.78805096276371</v>
       </c>
       <c r="C76">
-        <v>10.85597924134513</v>
+        <v>10.81836368408316</v>
       </c>
       <c r="D76">
-        <v>10.61810051992788</v>
+        <v>10.8993513358088</v>
       </c>
       <c r="E76">
-        <v>10.74886369887997</v>
+        <v>10.78805265720258</v>
       </c>
       <c r="F76">
-        <v>10.74261879349964</v>
+        <v>11.17213705422283</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.92824090012631</v>
+        <v>10.88259216701252</v>
       </c>
       <c r="C77">
-        <v>10.95120344081692</v>
+        <v>10.91356714891045</v>
       </c>
       <c r="D77">
-        <v>10.71784221479354</v>
+        <v>10.96966325425946</v>
       </c>
       <c r="E77">
-        <v>10.84435491429097</v>
+        <v>10.87880768207907</v>
       </c>
       <c r="F77">
-        <v>10.83837303956035</v>
+        <v>11.25470329158141</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>11.00816813713332</v>
+        <v>10.97153826414255</v>
       </c>
       <c r="C78">
-        <v>11.04053902161838</v>
+        <v>11.00290755318996</v>
       </c>
       <c r="D78">
-        <v>10.81156169825501</v>
+        <v>11.03580008335963</v>
       </c>
       <c r="E78">
-        <v>10.93393290964468</v>
+        <v>10.96418341248089</v>
       </c>
       <c r="F78">
-        <v>10.9282006329285</v>
+        <v>11.3321302204948</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>11.08315840074962</v>
+        <v>11.05508132229643</v>
       </c>
       <c r="C79">
-        <v>11.1242332746758</v>
+        <v>11.0866270534981</v>
       </c>
       <c r="D79">
-        <v>10.89949523932681</v>
+        <v>11.09789616722288</v>
       </c>
       <c r="E79">
-        <v>11.01785225515072</v>
+        <v>11.04436910500369</v>
       </c>
       <c r="F79">
-        <v>11.01235699583569</v>
+        <v>11.40460784538899</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>11.15339418166998</v>
+        <v>11.13342051511555</v>
       </c>
       <c r="C80">
-        <v>11.20253192429222</v>
+        <v>11.16496721150551</v>
       </c>
       <c r="D80">
-        <v>10.9818826163762</v>
+        <v>11.1560881340781</v>
       </c>
       <c r="E80">
-        <v>11.0963643199403</v>
+        <v>11.11955949854943</v>
       </c>
       <c r="F80">
-        <v>11.09109427051381</v>
+        <v>11.47232923453884</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11.21905997798105</v>
+        <v>11.20675837138812</v>
       </c>
       <c r="C81">
-        <v>11.27567645280376</v>
+        <v>11.23816621973508</v>
       </c>
       <c r="D81">
-        <v>11.05896305086789</v>
+        <v>11.21051366643907</v>
       </c>
       <c r="E81">
-        <v>11.16971493778286</v>
+        <v>11.18995152511761</v>
       </c>
       <c r="F81">
-        <v>11.16465897511125</v>
+        <v>11.53548790274305</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>11.28034012937941</v>
+        <v>11.27529794265459</v>
       </c>
       <c r="C82">
-        <v>11.34390230131459</v>
+        <v>11.30645686699626</v>
       </c>
       <c r="D82">
-        <v>11.13097234005433</v>
+        <v>11.26131046414337</v>
       </c>
       <c r="E82">
-        <v>11.23814287871733</v>
+        <v>11.25574186648785</v>
       </c>
       <c r="F82">
-        <v>11.23329051789166</v>
+        <v>11.5942758019967</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>11.33741719218304</v>
+        <v>11.33924070841673</v>
       </c>
       <c r="C83">
-        <v>11.40743768539506</v>
+        <v>11.3700652390388</v>
       </c>
       <c r="D83">
-        <v>11.19814087704186</v>
+        <v>11.3086153779292</v>
       </c>
       <c r="E83">
-        <v>11.30187888826331</v>
+        <v>11.31712511072108</v>
       </c>
       <c r="F83">
-        <v>11.29722023518899</v>
+        <v>11.64888181303501</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11.39047069190355</v>
+        <v>11.39878495304307</v>
       </c>
       <c r="C84">
-        <v>11.46650286160241</v>
+        <v>11.42920989351524</v>
       </c>
       <c r="D84">
-        <v>11.26069232986853</v>
+        <v>11.3525636944826</v>
       </c>
       <c r="E84">
-        <v>11.36114513284572</v>
+        <v>11.37429232891758</v>
       </c>
       <c r="F84">
-        <v>11.35667083193401</v>
+        <v>11.69949062320495</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>11.43967617858107</v>
+        <v>11.4541245695278</v>
       </c>
       <c r="C85">
-        <v>11.5213097242341</v>
+        <v>11.48410133575569</v>
       </c>
       <c r="D85">
-        <v>11.31884284464123</v>
+        <v>11.39328855708924</v>
       </c>
       <c r="E85">
-        <v>11.41615490055798</v>
+        <v>11.42743003333948</v>
       </c>
       <c r="F85">
-        <v>11.41185612006227</v>
+        <v>11.74628191868104</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>11.48520453219678</v>
+        <v>11.50544819979472</v>
       </c>
       <c r="C86">
-        <v>11.57206159823477</v>
+        <v>11.53494178736501</v>
       </c>
       <c r="D86">
-        <v>11.37280054345979</v>
+        <v>11.43092049826873</v>
       </c>
       <c r="E86">
-        <v>11.46711255770169</v>
+        <v>11.4767194784807</v>
       </c>
       <c r="F86">
-        <v>11.4629809534874</v>
+        <v>11.78942982735794</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>11.52722147442238</v>
+        <v>11.55293867210995</v>
       </c>
       <c r="C87">
-        <v>11.61895322365991</v>
+        <v>11.58192511638699</v>
       </c>
       <c r="D87">
-        <v>11.42276527795752</v>
+        <v>11.46558706697473</v>
       </c>
       <c r="E87">
-        <v>11.51421362291777</v>
+        <v>11.52233616270472</v>
       </c>
       <c r="F87">
-        <v>11.51024127454994</v>
+        <v>11.82910255637301</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11.56588721772122</v>
+        <v>11.59677261152958</v>
       </c>
       <c r="C88">
-        <v>11.66217087629057</v>
+        <v>11.6252368800458</v>
       </c>
       <c r="D88">
-        <v>11.46892857195923</v>
+        <v>11.4974125421047</v>
       </c>
       <c r="E88">
-        <v>11.55764488944992</v>
+        <v>11.56444950668623</v>
       </c>
       <c r="F88">
-        <v>11.5538242813741</v>
+        <v>11.86546215738119</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>11.60135628647638</v>
+        <v>11.63712020802744</v>
       </c>
       <c r="C89">
-        <v>11.70189252023495</v>
+        <v>11.66505445583369</v>
       </c>
       <c r="D89">
-        <v>11.51147368149671</v>
+        <v>11.52651771685679</v>
       </c>
       <c r="E89">
-        <v>11.59758466308799</v>
+        <v>11.60322266626263</v>
       </c>
       <c r="F89">
-        <v>11.59390867236745</v>
+        <v>11.89866441504491</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11.63377740883346</v>
+        <v>11.6741451022966</v>
       </c>
       <c r="C90">
-        <v>11.73828801473162</v>
+        <v>11.7015472433775</v>
       </c>
       <c r="D90">
-        <v>11.55057572873238</v>
+        <v>11.5530197529221</v>
       </c>
       <c r="E90">
-        <v>11.63420302426186</v>
+        <v>11.63881245726411</v>
       </c>
       <c r="F90">
-        <v>11.6306649067615</v>
+        <v>11.92885885262469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>11.66329348643589</v>
+        <v>11.70800436686586</v>
       </c>
       <c r="C91">
-        <v>11.77151938460922</v>
+        <v>11.73487689968603</v>
       </c>
       <c r="D91">
-        <v>11.58640189941923</v>
+        <v>11.57703205594231</v>
       </c>
       <c r="E91">
-        <v>11.66766211802656</v>
+        <v>11.67136936348627</v>
       </c>
       <c r="F91">
-        <v>11.66425546906996</v>
+        <v>11.95618879216266</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>11.6900416209281</v>
+        <v>11.73884855976962</v>
       </c>
       <c r="C92">
-        <v>11.80174109953153</v>
+        <v>11.76519758703169</v>
       </c>
       <c r="D92">
-        <v>11.61911170059002</v>
+        <v>11.59866420242892</v>
       </c>
       <c r="E92">
-        <v>11.6981164570556</v>
+        <v>11.70103759773369</v>
       </c>
       <c r="F92">
-        <v>11.69483519197619</v>
+        <v>11.98079141813126</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>11.71415319281722</v>
+        <v>11.76682182494688</v>
       </c>
       <c r="C93">
-        <v>11.82910036186136</v>
+        <v>11.79265626023297</v>
       </c>
       <c r="D93">
-        <v>11.64885723240035</v>
+        <v>11.61802193904242</v>
       </c>
       <c r="E93">
-        <v>11.72571322274753</v>
+        <v>11.72795521359011</v>
       </c>
       <c r="F93">
-        <v>11.7225515628421</v>
+        <v>12.00279792368548</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>11.73575397428301</v>
+        <v>11.79206203276959</v>
       </c>
       <c r="C94">
-        <v>11.85373740209633</v>
+        <v>11.81739295262032</v>
       </c>
       <c r="D94">
-        <v>11.67578344350197</v>
+        <v>11.63520718120227</v>
       </c>
       <c r="E94">
-        <v>11.75059256920633</v>
+        <v>11.75225424566209</v>
       </c>
       <c r="F94">
-        <v>11.74754503542692</v>
+        <v>12.02233367290056</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>11.75496426389379</v>
+        <v>11.81470093339837</v>
       </c>
       <c r="C95">
-        <v>11.87578576678531</v>
+        <v>11.8395410642003</v>
       </c>
       <c r="D95">
-        <v>11.70002842361402</v>
+        <v>11.65031804451602</v>
       </c>
       <c r="E95">
-        <v>11.7728879460581</v>
+        <v>11.77406086187207</v>
       </c>
       <c r="F95">
-        <v>11.76994933601874</v>
+        <v>12.03951838120844</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11.77189904264746</v>
+        <v>11.83486435173432</v>
       </c>
       <c r="C96">
-        <v>11.89537260739609</v>
+        <v>11.85922762938164</v>
       </c>
       <c r="D96">
-        <v>11.72172369216761</v>
+        <v>11.66344886938283</v>
       </c>
       <c r="E96">
-        <v>11.79272639176355</v>
+        <v>11.79349556278659</v>
       </c>
       <c r="F96">
-        <v>11.78989176158091</v>
+        <v>12.05446630393864</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>11.78666814107381</v>
+        <v>11.85267238845047</v>
       </c>
       <c r="C97">
-        <v>11.91261897793557</v>
+        <v>11.8765736030258</v>
       </c>
       <c r="D97">
-        <v>11.74099448306622</v>
+        <v>11.67469028335975</v>
       </c>
       <c r="E97">
-        <v>11.81022882674247</v>
+        <v>11.8106733729314</v>
       </c>
       <c r="F97">
-        <v>11.80749347300752</v>
+        <v>12.06728643282726</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11.79937640580367</v>
+        <v>11.8682396313877</v>
       </c>
       <c r="C98">
-        <v>11.92764010417646</v>
+        <v>11.89169413257745</v>
       </c>
       <c r="D98">
-        <v>11.75796002112945</v>
+        <v>11.68412928475297</v>
       </c>
       <c r="E98">
-        <v>11.82551033241302</v>
+        <v>11.82570404400253</v>
       </c>
       <c r="F98">
-        <v>11.822869772113</v>
+        <v>12.07808269635993</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11.81012388821156</v>
+        <v>11.88167535843832</v>
       </c>
       <c r="C99">
-        <v>11.94054565705292</v>
+        <v>11.90469882325326</v>
       </c>
       <c r="D99">
-        <v>11.77273379501261</v>
+        <v>11.69184932430259</v>
       </c>
       <c r="E99">
-        <v>11.83868041060801</v>
+        <v>11.83869224048998</v>
       </c>
       <c r="F99">
-        <v>11.83613039060939</v>
+        <v>12.08695416130416</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11.81900602484699</v>
+        <v>11.89308373353251</v>
       </c>
       <c r="C100">
-        <v>11.95144000590966</v>
+        <v>11.91569199279466</v>
       </c>
       <c r="D100">
-        <v>11.78542381590172</v>
+        <v>11.69793039789343</v>
       </c>
       <c r="E100">
-        <v>11.84984326458329</v>
+        <v>11.84973774633671</v>
       </c>
       <c r="F100">
-        <v>11.84737974086282</v>
+        <v>12.0939952334954</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>11.82611382972632</v>
+        <v>11.90256403295049</v>
       </c>
       <c r="C101">
-        <v>11.96042245542547</v>
+        <v>11.92477291171606</v>
       </c>
       <c r="D101">
-        <v>11.79613287960212</v>
+        <v>11.70244914319934</v>
       </c>
       <c r="E101">
-        <v>11.85909804027859</v>
+        <v>11.85893566814546</v>
       </c>
       <c r="F101">
-        <v>11.85671717478122</v>
+        <v>12.09929585616031</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>11.83153406790908</v>
+        <v>11.91021084547211</v>
       </c>
       <c r="C102">
-        <v>11.96758750267383</v>
+        <v>11.93203605300128</v>
       </c>
       <c r="D102">
-        <v>11.80495880023874</v>
+        <v>11.70547894092826</v>
       </c>
       <c r="E102">
-        <v>11.86653906904577</v>
+        <v>11.86637663294847</v>
       </c>
       <c r="F102">
-        <v>11.86423721045631</v>
+        <v>12.10294170248525</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>11.83534942228526</v>
+        <v>11.91611427634722</v>
       </c>
       <c r="C103">
-        <v>11.97302505699978</v>
+        <v>11.93757129989103</v>
       </c>
       <c r="D103">
-        <v>11.81199465361993</v>
+        <v>11.70709001735585</v>
       </c>
       <c r="E103">
-        <v>11.87225610076959</v>
+        <v>11.87214698054553</v>
       </c>
       <c r="F103">
-        <v>11.87002977608479</v>
+        <v>12.10501435504806</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.83763867805337</v>
+        <v>11.92036014361347</v>
       </c>
       <c r="C104">
-        <v>11.97682066443654</v>
+        <v>11.94146419498037</v>
       </c>
       <c r="D104">
-        <v>11.8173290023328</v>
+        <v>11.7073495512341</v>
       </c>
       <c r="E104">
-        <v>11.8763345134147</v>
+        <v>11.87632895105748</v>
       </c>
       <c r="F104">
-        <v>11.87418042345789</v>
+        <v>12.1055915033882</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>11.83847689131222</v>
+        <v>11.92303016895045</v>
       </c>
       <c r="C105">
-        <v>11.97905571009035</v>
+        <v>11.94379612003883</v>
       </c>
       <c r="D105">
-        <v>11.82104610885144</v>
+        <v>11.70632177986129</v>
       </c>
       <c r="E105">
-        <v>11.87885552996738</v>
+        <v>11.87900086668086</v>
       </c>
       <c r="F105">
-        <v>11.87677054612945</v>
+        <v>12.1047471191708</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>11.83793555377999</v>
+        <v>11.92420215649616</v>
       </c>
       <c r="C106">
-        <v>11.97980762128835</v>
+        <v>11.94464449097698</v>
       </c>
       <c r="D106">
-        <v>11.82322613295294</v>
+        <v>11.70406810562334</v>
       </c>
       <c r="E106">
-        <v>11.87989642389118</v>
+        <v>11.88023730405619</v>
       </c>
       <c r="F106">
-        <v>11.87787757291278</v>
+        <v>12.10255161948143</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>11.83608275212127</v>
+        <v>11.92395018749413</v>
       </c>
       <c r="C107">
-        <v>11.97915005732693</v>
+        <v>11.94408298653711</v>
       </c>
       <c r="D107">
-        <v>11.82394533756051</v>
+        <v>11.70064720185941</v>
       </c>
       <c r="E107">
-        <v>11.87953071685389</v>
+        <v>11.88010927654129</v>
       </c>
       <c r="F107">
-        <v>11.87757516172735</v>
+        <v>12.09907203201422</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>11.83298332158176</v>
+        <v>11.92234476239555</v>
       </c>
       <c r="C108">
-        <v>11.97715308660621</v>
+        <v>11.94218166970554</v>
       </c>
       <c r="D108">
-        <v>11.82327628176647</v>
+        <v>11.69611511714723</v>
       </c>
       <c r="E108">
-        <v>11.87782833874091</v>
+        <v>11.87868437881274</v>
       </c>
       <c r="F108">
-        <v>11.87593338198737</v>
+        <v>12.09437215304098</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11.82869899581799</v>
+        <v>11.919453016953</v>
       </c>
       <c r="C109">
-        <v>11.97388336738893</v>
+        <v>11.93900721090933</v>
       </c>
       <c r="D109">
-        <v>11.8212879865459</v>
+        <v>11.69052537685314</v>
       </c>
       <c r="E109">
-        <v>11.87485583647626</v>
+        <v>11.8760269743412</v>
       </c>
       <c r="F109">
-        <v>11.87301888188437</v>
+        <v>12.08851269886118</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11.82328854401945</v>
+        <v>11.91533882205758</v>
       </c>
       <c r="C110">
-        <v>11.96940431048692</v>
+        <v>11.93462303217825</v>
       </c>
       <c r="D110">
-        <v>11.81804611073215</v>
+        <v>11.68392908786458</v>
       </c>
       <c r="E110">
-        <v>11.87067647407561</v>
+        <v>11.87219832061359</v>
       </c>
       <c r="F110">
-        <v>11.86889506877513</v>
+        <v>12.08155144850272</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>11.81680791117791</v>
+        <v>11.91006299092373</v>
       </c>
       <c r="C111">
-        <v>11.96377624762993</v>
+        <v>11.92908945772398</v>
       </c>
       <c r="D111">
-        <v>11.81361312081409</v>
+        <v>11.67637502365544</v>
       </c>
       <c r="E111">
-        <v>11.8653504778226</v>
+        <v>11.86725672258819</v>
       </c>
       <c r="F111">
-        <v>11.86362224927705</v>
+        <v>12.07354339065336</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>11.80931035488977</v>
+        <v>11.90368337745211</v>
       </c>
       <c r="C112">
-        <v>11.95705657816198</v>
+        <v>11.92246389319048</v>
       </c>
       <c r="D112">
-        <v>11.80804843595386</v>
+        <v>11.66790974360902</v>
       </c>
       <c r="E112">
-        <v>11.85893508289332</v>
+        <v>11.8612576820861</v>
       </c>
       <c r="F112">
-        <v>11.85725781680529</v>
+        <v>12.06454084709428</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.80084656336338</v>
+        <v>11.8962550377658</v>
       </c>
       <c r="C113">
-        <v>11.94929988637938</v>
+        <v>11.91480093009369</v>
       </c>
       <c r="D113">
-        <v>11.80140857843833</v>
+        <v>11.6585776589552</v>
       </c>
       <c r="E113">
-        <v>11.85148478060945</v>
+        <v>11.85425399310659</v>
       </c>
       <c r="F113">
-        <v>11.84985634924208</v>
+        <v>12.05459360245735</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.79146479485379</v>
+        <v>11.88783036660362</v>
       </c>
       <c r="C114">
-        <v>11.94055812268714</v>
+        <v>11.90615250723042</v>
       </c>
       <c r="D114">
-        <v>11.79374731819625</v>
+        <v>11.64842115531467</v>
       </c>
       <c r="E114">
-        <v>11.84305135796599</v>
+        <v>11.84629592501407</v>
       </c>
       <c r="F114">
-        <v>11.84146977429968</v>
+        <v>12.04374902980686</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>11.78121096232617</v>
+        <v>11.87845920048521</v>
       </c>
       <c r="C115">
-        <v>11.93088066823398</v>
+        <v>11.89656803367787</v>
       </c>
       <c r="D115">
-        <v>11.78511580478992</v>
+        <v>11.63748064196063</v>
       </c>
       <c r="E115">
-        <v>11.83368411798731</v>
+        <v>11.83743128546558</v>
       </c>
       <c r="F115">
-        <v>11.83214748316708</v>
+        <v>12.03205220143501</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>11.77012877853026</v>
+        <v>11.86818898221733</v>
       </c>
       <c r="C116">
-        <v>11.92031452398001</v>
+        <v>11.88609449870289</v>
       </c>
       <c r="D116">
-        <v>11.77556269093635</v>
+        <v>11.62579467453441</v>
       </c>
       <c r="E116">
-        <v>11.8234299292119</v>
+        <v>11.82770559057389</v>
       </c>
       <c r="F116">
-        <v>11.82193645067384</v>
+        <v>12.01954599891974</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>11.75825982164766</v>
+        <v>11.8570648276902</v>
       </c>
       <c r="C117">
-        <v>11.90890437024725</v>
+        <v>11.87477661418143</v>
       </c>
       <c r="D117">
-        <v>11.76513425598295</v>
+        <v>11.61340000060252</v>
       </c>
       <c r="E117">
-        <v>11.81233340875138</v>
+        <v>11.81716213188645</v>
       </c>
       <c r="F117">
-        <v>11.81088136272934</v>
+        <v>12.00627120864145</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>11.74564367038626</v>
+        <v>11.84512968515257</v>
       </c>
       <c r="C118">
-        <v>11.8966927249075</v>
+        <v>11.86265690198718</v>
       </c>
       <c r="D118">
-        <v>11.75387452722745</v>
+        <v>11.60033166707807</v>
       </c>
       <c r="E118">
-        <v>11.8004369621161</v>
+        <v>11.80584211704481</v>
       </c>
       <c r="F118">
-        <v>11.79902471861167</v>
+        <v>11.99226665323685</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>11.73231797380982</v>
+        <v>11.83242439592637</v>
       </c>
       <c r="C119">
-        <v>11.88372001612812</v>
+        <v>11.8497758106474</v>
       </c>
       <c r="D119">
-        <v>11.74182538003658</v>
+        <v>11.58662307218932</v>
       </c>
       <c r="E119">
-        <v>11.78778095733564</v>
+        <v>11.79378474457793</v>
       </c>
       <c r="F119">
-        <v>11.78640694276848</v>
+        <v>11.97756924488991</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>11.71831855928177</v>
+        <v>11.81898782948902</v>
       </c>
       <c r="C120">
-        <v>11.87002471664639</v>
+        <v>11.83617182462766</v>
       </c>
       <c r="D120">
-        <v>11.72902664672449</v>
+        <v>11.57230605791478</v>
       </c>
       <c r="E120">
-        <v>11.77440376831718</v>
+        <v>11.78102731104924</v>
       </c>
       <c r="F120">
-        <v>11.77306648880706</v>
+        <v>11.96221412784501</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>11.70367951459964</v>
+        <v>11.80485695820412</v>
       </c>
       <c r="C121">
-        <v>11.855643417924</v>
+        <v>11.82188153904346</v>
       </c>
       <c r="D121">
-        <v>11.71551621160566</v>
+        <v>11.55741097292709</v>
       </c>
       <c r="E121">
-        <v>11.76034191074333</v>
+        <v>11.76760530839207</v>
       </c>
       <c r="F121">
-        <v>11.75903993531484</v>
+        <v>11.94623472973383</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>11.68843327429862</v>
+        <v>11.79006695117254</v>
       </c>
       <c r="C122">
-        <v>11.84061093689109</v>
+        <v>11.80693977448592</v>
       </c>
       <c r="D122">
-        <v>11.70133011279715</v>
+        <v>11.54196673378677</v>
       </c>
       <c r="E122">
-        <v>11.74563010974618</v>
+        <v>11.7535524878133</v>
       </c>
       <c r="F122">
-        <v>11.74436208677256</v>
+        <v>11.92966283315807</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>11.67261070794845</v>
+        <v>11.77465127813481</v>
       </c>
       <c r="C123">
-        <v>11.82496038005133</v>
+        <v>11.79137964709534</v>
       </c>
       <c r="D123">
-        <v>11.68650263556394</v>
+        <v>11.52600090532264</v>
       </c>
       <c r="E123">
-        <v>11.73030139538384</v>
+        <v>11.73890098065381</v>
       </c>
       <c r="F123">
-        <v>11.72906604227146</v>
+        <v>11.91252871314474</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>11.65624117360883</v>
+        <v>11.75864176165768</v>
       </c>
       <c r="C124">
-        <v>11.80872325115805</v>
+        <v>11.77523265372806</v>
       </c>
       <c r="D124">
-        <v>11.6710663812346</v>
+        <v>11.50953973791379</v>
       </c>
       <c r="E124">
-        <v>11.71438719412368</v>
+        <v>11.72368133475465</v>
       </c>
       <c r="F124">
-        <v>11.71318329355182</v>
+        <v>11.89486111242638</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>11.63935261592406</v>
+        <v>11.7420686943293</v>
       </c>
       <c r="C125">
-        <v>11.79192949363203</v>
+        <v>11.75852876435615</v>
       </c>
       <c r="D125">
-        <v>11.65505240475338</v>
+        <v>11.49260825840172</v>
       </c>
       <c r="E125">
-        <v>11.69791738214969</v>
+        <v>11.7079226310132</v>
       </c>
       <c r="F125">
-        <v>11.6967437866532</v>
+        <v>11.87668742868319</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>11.62197160781546</v>
+        <v>11.724960874705</v>
       </c>
       <c r="C126">
-        <v>11.77460760594463</v>
+        <v>11.74129647591363</v>
       </c>
       <c r="D126">
-        <v>11.63849017316239</v>
+        <v>11.47523029215406</v>
       </c>
       <c r="E126">
-        <v>11.68092040120411</v>
+        <v>11.69165251987579</v>
       </c>
       <c r="F126">
-        <v>11.67977600390545</v>
+        <v>11.85803366945948</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.60412344416756</v>
+        <v>11.70734571390056</v>
       </c>
       <c r="C127">
-        <v>11.75678467873277</v>
+        <v>11.72356290119109</v>
       </c>
       <c r="D127">
-        <v>11.62140780528768</v>
+        <v>11.45742855085283</v>
       </c>
       <c r="E127">
-        <v>11.66342327863155</v>
+        <v>11.6748973180081</v>
       </c>
       <c r="F127">
-        <v>11.66230703602942</v>
+        <v>11.83892461946764</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>11.58583217270971</v>
+        <v>11.68924927556096</v>
       </c>
       <c r="C128">
-        <v>11.73848649426504</v>
+        <v>11.70535382832597</v>
       </c>
       <c r="D128">
-        <v>11.60383195268139</v>
+        <v>11.43922465496975</v>
       </c>
       <c r="E128">
-        <v>11.64545174927163</v>
+        <v>11.65768205402205</v>
       </c>
       <c r="F128">
-        <v>11.64436264962466</v>
+        <v>11.81938381104502</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.56712068777555</v>
+        <v>11.6706963590739</v>
       </c>
       <c r="C129">
-        <v>11.71973757288568</v>
+        <v>11.68669378230169</v>
       </c>
       <c r="D129">
-        <v>11.5857880461081</v>
+        <v>11.42063920975303</v>
       </c>
       <c r="E129">
-        <v>11.62703026614579</v>
+        <v>11.64003053871373</v>
       </c>
       <c r="F129">
-        <v>11.62596735542175</v>
+        <v>11.79943367077992</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.5480107510244</v>
+        <v>11.65171055462977</v>
       </c>
       <c r="C130">
-        <v>11.70056124346368</v>
+        <v>11.66760609900555</v>
       </c>
       <c r="D130">
-        <v>11.56730020547194</v>
+        <v>11.40169183054672</v>
       </c>
       <c r="E130">
-        <v>11.60818211125273</v>
+        <v>11.62196542832508</v>
       </c>
       <c r="F130">
-        <v>11.60714447524639</v>
+        <v>11.77909549604007</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.52852308500488</v>
+        <v>11.63231429473366</v>
       </c>
       <c r="C131">
-        <v>11.68097968637326</v>
+        <v>11.64811296779927</v>
       </c>
       <c r="D131">
-        <v>11.5483914239058</v>
+        <v>11.38240120648098</v>
       </c>
       <c r="E131">
-        <v>11.58892940943027</v>
+        <v>11.60350826470494</v>
       </c>
       <c r="F131">
-        <v>11.58791618408577</v>
+        <v>11.75838958882071</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.50867738106442</v>
+        <v>11.61252893074452</v>
       </c>
       <c r="C132">
-        <v>11.66101401214526</v>
+        <v>11.62823549775319</v>
       </c>
       <c r="D132">
-        <v>11.52908353182275</v>
+        <v>11.36278513071999</v>
       </c>
       <c r="E132">
-        <v>11.56929322231695</v>
+        <v>11.58467955442598</v>
       </c>
       <c r="F132">
-        <v>11.56830358061658</v>
+        <v>11.73733521554731</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.4884923956392</v>
+        <v>11.59237475822401</v>
       </c>
       <c r="C133">
-        <v>11.6406842882026</v>
+        <v>11.60799376861362</v>
       </c>
       <c r="D133">
-        <v>11.50939732017207</v>
+        <v>11.34286054964341</v>
       </c>
       <c r="E133">
-        <v>11.54929356875507</v>
+        <v>11.56549879044463</v>
       </c>
       <c r="F133">
-        <v>11.54832673008101</v>
+        <v>11.71595074049502</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.46798594739748</v>
+        <v>11.57187109604</v>
       </c>
       <c r="C134">
-        <v>11.62000961266174</v>
+        <v>11.5874068749108</v>
       </c>
       <c r="D134">
-        <v>11.48935255383771</v>
+        <v>11.32264360149738</v>
       </c>
       <c r="E134">
-        <v>11.52894950115924</v>
+        <v>11.54598452849458</v>
       </c>
       <c r="F134">
-        <v>11.52800472077672</v>
+        <v>11.69425360850444</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.44717501039631</v>
+        <v>11.55103630893664</v>
       </c>
       <c r="C135">
-        <v>11.5990081391385</v>
+        <v>11.56649298469143</v>
       </c>
       <c r="D135">
-        <v>11.46896804066563</v>
+        <v>11.30214964841959</v>
       </c>
       <c r="E135">
-        <v>11.5082791334547</v>
+        <v>11.5261544093599</v>
       </c>
       <c r="F135">
-        <v>11.50735570495293</v>
+        <v>11.6722604216026</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.42607570884196</v>
+        <v>11.52988787445803</v>
       </c>
       <c r="C136">
-        <v>11.57769714423286</v>
+        <v>11.54526937447963</v>
       </c>
       <c r="D136">
-        <v>11.44826167585326</v>
+        <v>11.28139332565637</v>
       </c>
       <c r="E136">
-        <v>11.48729969964978</v>
+        <v>11.50602522159267</v>
       </c>
       <c r="F136">
-        <v>11.48639694997098</v>
+        <v>11.64998697086608</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.4047034020327</v>
+        <v>11.50844241137742</v>
       </c>
       <c r="C137">
-        <v>11.55609305182186</v>
+        <v>11.52375246688222</v>
       </c>
       <c r="D137">
-        <v>11.42725046509583</v>
+        <v>11.26038855820407</v>
       </c>
       <c r="E137">
-        <v>11.46602759068805</v>
+        <v>11.48561293074468</v>
       </c>
       <c r="F137">
-        <v>11.46514487714114</v>
+        <v>11.62744826813073</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.38307268051298</v>
+        <v>11.48671572901506</v>
       </c>
       <c r="C138">
-        <v>11.53421149119609</v>
+        <v>11.5019578974125</v>
       </c>
       <c r="D138">
-        <v>11.40595060743747</v>
+        <v>11.23914861444791</v>
       </c>
       <c r="E138">
-        <v>11.44447839444781</v>
+        <v>11.46493272421856</v>
       </c>
       <c r="F138">
-        <v>11.4436151080984</v>
+        <v>11.6046586039827</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.36119744172293</v>
+        <v>11.46472286723655</v>
       </c>
       <c r="C139">
-        <v>11.51206732093386</v>
+        <v>11.47990053541078</v>
       </c>
       <c r="D139">
-        <v>11.38437747043811</v>
+        <v>11.21768611664215</v>
       </c>
       <c r="E139">
-        <v>11.42266694342278</v>
+        <v>11.44399905222118</v>
       </c>
       <c r="F139">
-        <v>11.42182249814336</v>
+        <v>11.58163155630831</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.33909088788586</v>
+        <v>11.4424781250458</v>
       </c>
       <c r="C140">
-        <v>11.48967468119967</v>
+        <v>11.4575945065779</v>
       </c>
       <c r="D140">
-        <v>11.36254570577079</v>
+        <v>11.19601309080621</v>
       </c>
       <c r="E140">
-        <v>11.40060733531804</v>
+        <v>11.42282565296757</v>
       </c>
       <c r="F140">
-        <v>11.39978118036905</v>
+        <v>11.55838005723503</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.31676559357241</v>
+        <v>11.41999511240416</v>
       </c>
       <c r="C141">
-        <v>11.4670470141667</v>
+        <v>11.43505330568423</v>
       </c>
       <c r="D141">
-        <v>11.34046922872515</v>
+        <v>11.1741409775652</v>
       </c>
       <c r="E141">
-        <v>11.37831299169781</v>
+        <v>11.40142560378192</v>
       </c>
       <c r="F141">
-        <v>11.37750459403454</v>
+        <v>11.53491638739804</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.29423350427851</v>
+        <v>11.39728676509317</v>
       </c>
       <c r="C142">
-        <v>11.4441971126526</v>
+        <v>11.41228967390856</v>
       </c>
       <c r="D142">
-        <v>11.31816129608228</v>
+        <v>11.15208067488145</v>
       </c>
       <c r="E142">
-        <v>11.35579666512037</v>
+        <v>11.37981133453243</v>
       </c>
       <c r="F142">
-        <v>11.35500552535178</v>
+        <v>11.5112522499191</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.27150599737968</v>
+        <v>11.37436539532121</v>
       </c>
       <c r="C143">
-        <v>11.42113713684276</v>
+        <v>11.38931582120735</v>
       </c>
       <c r="D143">
-        <v>11.29563448650622</v>
+        <v>11.12984255162974</v>
       </c>
       <c r="E143">
-        <v>11.33307049708035</v>
+        <v>11.35799467680294</v>
       </c>
       <c r="F143">
-        <v>11.33229613239597</v>
+        <v>11.48739875250163</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.24859388087754</v>
+        <v>11.35124270708514</v>
       </c>
       <c r="C144">
-        <v>11.39787865981581</v>
+        <v>11.36614332338512</v>
       </c>
       <c r="D144">
-        <v>11.27290079487473</v>
+        <v>11.10743648178189</v>
       </c>
       <c r="E144">
-        <v>11.31014602435947</v>
+        <v>11.33598687798712</v>
       </c>
       <c r="F144">
-        <v>11.3093879820802</v>
+        <v>11.4633664845534</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.22550744842755</v>
+        <v>11.32792983725319</v>
       </c>
       <c r="C145">
-        <v>11.37443268179329</v>
+        <v>11.34278316458627</v>
       </c>
       <c r="D145">
-        <v>11.24997160559862</v>
+        <v>11.08487186241502</v>
       </c>
       <c r="E145">
-        <v>11.28703422996413</v>
+        <v>11.31379864142362</v>
       </c>
       <c r="F145">
-        <v>11.28629207296702</v>
+        <v>11.43916549352718</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.20225647855925</v>
+        <v>11.30443737611837</v>
       </c>
       <c r="C146">
-        <v>11.35080967173323</v>
+        <v>11.31924584174743</v>
       </c>
       <c r="D146">
-        <v>11.22685776574572</v>
+        <v>11.06215763818268</v>
       </c>
       <c r="E146">
-        <v>11.26374555092285</v>
+        <v>11.29144014520913</v>
       </c>
       <c r="F146">
-        <v>11.26301886847251</v>
+        <v>11.41480535851499</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11.17885028390244</v>
+        <v>11.28077539584747</v>
       </c>
       <c r="C147">
-        <v>11.32701958040058</v>
+        <v>11.29554128393347</v>
       </c>
       <c r="D147">
-        <v>11.20356958001817</v>
+        <v>11.03930232522129</v>
       </c>
       <c r="E147">
-        <v>11.24028992168759</v>
+        <v>11.26892107067199</v>
       </c>
       <c r="F147">
-        <v>11.23957831773419</v>
+        <v>11.39029517006791</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11.1552977113007</v>
+        <v>11.25695347883228</v>
       </c>
       <c r="C148">
-        <v>11.30307187777123</v>
+        <v>11.27167897610787</v>
       </c>
       <c r="D148">
-        <v>11.1801168524542</v>
+        <v>11.01631402484083</v>
       </c>
       <c r="E148">
-        <v>11.21667678452313</v>
+        <v>11.2462506284499</v>
       </c>
       <c r="F148">
-        <v>11.21597988580033</v>
+        <v>11.36564358996694</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>11.1316071854646</v>
+        <v>11.23298072514417</v>
       </c>
       <c r="C149">
-        <v>11.27897556511704</v>
+        <v>11.24766791909615</v>
       </c>
       <c r="D149">
-        <v>11.15650891082021</v>
+        <v>10.99320045324136</v>
       </c>
       <c r="E149">
-        <v>11.19291512475507</v>
+        <v>11.22343756584987</v>
       </c>
       <c r="F149">
-        <v>11.19223257226655</v>
+        <v>11.34085884576821</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11.10778671003856</v>
+        <v>11.20886580832816</v>
       </c>
       <c r="C150">
-        <v>11.2547392087576</v>
+        <v>11.22351666939526</v>
       </c>
       <c r="D150">
-        <v>11.13275461911358</v>
+        <v>10.96996894055238</v>
       </c>
       <c r="E150">
-        <v>11.16901348488012</v>
+        <v>11.20049022054287</v>
       </c>
       <c r="F150">
-        <v>11.16834493903244</v>
+        <v>11.31594876755091</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>11.08384390618392</v>
+        <v>11.18461697333869</v>
       </c>
       <c r="C151">
-        <v>11.23037095080866</v>
+        <v>11.19923338544848</v>
       </c>
       <c r="D151">
-        <v>11.10886241798793</v>
+        <v>10.9466264802519</v>
       </c>
       <c r="E151">
-        <v>11.14497999108225</v>
+        <v>11.17741652087991</v>
       </c>
       <c r="F151">
-        <v>11.14432512664776</v>
+        <v>11.29092080146658</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.05978601443005</v>
+        <v>11.16024204251303</v>
       </c>
       <c r="C152">
-        <v>11.20587854004132</v>
+        <v>11.174825801022</v>
       </c>
       <c r="D152">
-        <v>11.08484032235442</v>
+        <v>10.92317972589267</v>
       </c>
       <c r="E152">
-        <v>11.12082237204088</v>
+        <v>11.15422398477713</v>
       </c>
       <c r="F152">
-        <v>11.12018087986216</v>
+        <v>11.26578202674598</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.03561992874113</v>
+        <v>11.13574850477926</v>
       </c>
       <c r="C153">
-        <v>11.18126934113174</v>
+        <v>11.15030130319034</v>
       </c>
       <c r="D153">
-        <v>11.06069596910253</v>
+        <v>10.89963498715335</v>
       </c>
       <c r="E153">
-        <v>11.0965479762491</v>
+        <v>11.13091981258966</v>
       </c>
       <c r="F153">
-        <v>11.09591956201434</v>
+        <v>11.24053918138457</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.01135219902956</v>
+        <v>11.11114343530949</v>
       </c>
       <c r="C154">
-        <v>11.15655036302641</v>
+        <v>11.12566689538827</v>
       </c>
       <c r="D154">
-        <v>11.03643660644814</v>
+        <v>10.87599831473379</v>
       </c>
       <c r="E154">
-        <v>11.07216379603728</v>
+        <v>11.10751081372124</v>
       </c>
       <c r="F154">
-        <v>11.07154817839055</v>
+        <v>11.21519866615803</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.9869890611312</v>
+        <v>11.08643357395725</v>
       </c>
       <c r="C155">
-        <v>11.13172826693589</v>
+        <v>11.100929239631</v>
       </c>
       <c r="D155">
-        <v>11.01206914344694</v>
+        <v>10.85227543927582</v>
       </c>
       <c r="E155">
-        <v>11.04767646772851</v>
+        <v>11.08400346155155</v>
       </c>
       <c r="F155">
-        <v>11.04707338906935</v>
+        <v>11.18976657741117</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.96253643997181</v>
+        <v>11.06162536963121</v>
       </c>
       <c r="C156">
-        <v>11.10680939228029</v>
+        <v>11.07609468941517</v>
       </c>
       <c r="D156">
-        <v>10.98760013506203</v>
+        <v>10.82847179447895</v>
       </c>
       <c r="E156">
-        <v>11.02309231875319</v>
+        <v>11.06040396054457</v>
       </c>
       <c r="F156">
-        <v>11.02250153016922</v>
+        <v>11.16424870278695</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.9379999757694</v>
+        <v>11.03672488164622</v>
       </c>
       <c r="C157">
-        <v>11.08179976377355</v>
+        <v>11.05116925871263</v>
       </c>
       <c r="D157">
-        <v>10.96303583075392</v>
+        <v>10.80459260485529</v>
       </c>
       <c r="E157">
-        <v>10.99841736903976</v>
+        <v>11.03671814348948</v>
       </c>
       <c r="F157">
-        <v>10.99783862539412</v>
+        <v>11.13865055716355</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.91338502786567</v>
+        <v>11.01173793518375</v>
       </c>
       <c r="C158">
-        <v>11.05670511499969</v>
+        <v>11.02615869492438</v>
       </c>
       <c r="D158">
-        <v>10.93838216008376</v>
+        <v>10.78064279549657</v>
       </c>
       <c r="E158">
-        <v>10.9736573131935</v>
+        <v>11.01295160602558</v>
       </c>
       <c r="F158">
-        <v>10.9730904053724</v>
+        <v>11.11297737406148</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.88869669745741</v>
+        <v>10.98667005174327</v>
       </c>
       <c r="C159">
-        <v>11.03153089477199</v>
+        <v>11.00106844424174</v>
       </c>
       <c r="D159">
-        <v>10.91364477321181</v>
+        <v>10.75662706150354</v>
       </c>
       <c r="E159">
-        <v>10.94881761545306</v>
+        <v>10.98910966437927</v>
       </c>
       <c r="F159">
-        <v>10.9482623179841</v>
+        <v>11.08723414155704</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.86393983206094</v>
+        <v>10.96152645755009</v>
       </c>
       <c r="C160">
-        <v>11.00628228853179</v>
+        <v>10.97590369093338</v>
       </c>
       <c r="D160">
-        <v>10.88882903647412</v>
+        <v>10.73254989453758</v>
       </c>
       <c r="E160">
-        <v>10.92390345636968</v>
+        <v>10.96519734357154</v>
       </c>
       <c r="F160">
-        <v>10.92335954602604</v>
+        <v>11.06142559224357</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.83911904157604</v>
+        <v>10.93631215481088</v>
       </c>
       <c r="C161">
-        <v>10.98096422400496</v>
+        <v>10.95066937149954</v>
       </c>
       <c r="D161">
-        <v>10.86394005585463</v>
+        <v>10.7084155310007</v>
       </c>
       <c r="E161">
-        <v>10.89891972119809</v>
+        <v>10.94121945621995</v>
       </c>
       <c r="F161">
-        <v>10.89838701637478</v>
+        <v>11.03555623699813</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.81423870570496</v>
+        <v>10.91103188199236</v>
       </c>
       <c r="C162">
-        <v>10.95558139068847</v>
+        <v>10.92537016570766</v>
       </c>
       <c r="D162">
-        <v>10.83898268764357</v>
+        <v>10.68422802691396</v>
       </c>
       <c r="E162">
-        <v>10.87387112101027</v>
+        <v>10.91718056449614</v>
       </c>
       <c r="F162">
-        <v>10.87334941615491</v>
+        <v>11.00963035592044</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.78930300304435</v>
+        <v>10.88569014361775</v>
       </c>
       <c r="C163">
-        <v>10.93013824480867</v>
+        <v>10.90001054147501</v>
       </c>
       <c r="D163">
-        <v>10.81396154685673</v>
+        <v>10.65999124146876</v>
       </c>
       <c r="E163">
-        <v>10.84876210098887</v>
+        <v>10.89308499919892</v>
       </c>
       <c r="F163">
-        <v>10.84825119485077</v>
+        <v>10.98365202698362</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.76431589434219</v>
+        <v>10.86029124055908</v>
       </c>
       <c r="C164">
-        <v>10.9046390235412</v>
+        <v>10.87459473223915</v>
       </c>
       <c r="D164">
-        <v>10.78888102711818</v>
+        <v>10.63570882387413</v>
       </c>
       <c r="E164">
-        <v>10.82359687134561</v>
+        <v>10.86893689944322</v>
       </c>
       <c r="F164">
-        <v>10.82309658929359</v>
+        <v>10.95762512252443</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.73928114411628</v>
+        <v>10.8348392407275</v>
       </c>
       <c r="C165">
-        <v>10.87908775186705</v>
+        <v>10.84912677255339</v>
       </c>
       <c r="D165">
-        <v>10.7637453001847</v>
+        <v>10.61138427114438</v>
       </c>
       <c r="E165">
-        <v>10.79837947449266</v>
+        <v>10.84474018426038</v>
       </c>
       <c r="F165">
-        <v>10.79788963851725</v>
+        <v>10.93155332755912</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.71420236267547</v>
+        <v>10.80933803366874</v>
       </c>
       <c r="C166">
-        <v>10.85348827067924</v>
+        <v>10.82361050064704</v>
       </c>
       <c r="D166">
-        <v>10.73855834032159</v>
+        <v>10.58702090472433</v>
       </c>
       <c r="E166">
-        <v>10.77311372485161</v>
+        <v>10.82049859186951</v>
       </c>
       <c r="F166">
-        <v>10.77263415847167</v>
+        <v>10.90544014540178</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.68908295270136</v>
+        <v>10.78379131727183</v>
       </c>
       <c r="C167">
-        <v>10.82784422106664</v>
+        <v>10.79804955519398</v>
       </c>
       <c r="D167">
-        <v>10.71332391886237</v>
+        <v>10.56262187295165</v>
       </c>
       <c r="E167">
-        <v>10.74780325354922</v>
+        <v>10.79621568643073</v>
       </c>
       <c r="F167">
-        <v>10.74733379952761</v>
+        <v>10.87928890619139</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.66392614280994</v>
+        <v>10.75820258246244</v>
       </c>
       <c r="C168">
-        <v>10.80215905930499</v>
+        <v>10.77244741228023</v>
       </c>
       <c r="D168">
-        <v>10.68804563010746</v>
+        <v>10.53819019291215</v>
       </c>
       <c r="E168">
-        <v>10.72245152774145</v>
+        <v>10.77189482624805</v>
       </c>
       <c r="F168">
-        <v>10.72199204993919</v>
+        <v>10.85310277871615</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.63873504402626</v>
+        <v>10.73257518003867</v>
       </c>
       <c r="C169">
-        <v>10.77643610420869</v>
+        <v>10.74680736113373</v>
       </c>
       <c r="D169">
-        <v>10.66272688354145</v>
+        <v>10.51372872350262</v>
       </c>
       <c r="E169">
-        <v>10.69706182132148</v>
+        <v>10.74753923754745</v>
       </c>
       <c r="F169">
-        <v>10.69661217865999</v>
+        <v>10.82688477254378</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.61351258120799</v>
+        <v>10.70691228175087</v>
       </c>
       <c r="C170">
-        <v>10.75067848773807</v>
+        <v>10.72113254056005</v>
       </c>
       <c r="D170">
-        <v>10.63737092914471</v>
+        <v>10.48924017404153</v>
       </c>
       <c r="E170">
-        <v>10.67163726307978</v>
+        <v>10.72315197815772</v>
       </c>
       <c r="F170">
-        <v>10.6711973237697</v>
+        <v>10.80063775120843</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.588261529267</v>
+        <v>10.68121689720645</v>
       </c>
       <c r="C171">
-        <v>10.72488916715806</v>
+        <v>10.6954259328426</v>
       </c>
       <c r="D171">
-        <v>10.61198084962038</v>
+        <v>10.46472714495772</v>
       </c>
       <c r="E171">
-        <v>10.64618083162137</v>
+        <v>10.69873594305836</v>
       </c>
       <c r="F171">
-        <v>10.64575048720285</v>
+        <v>10.77436442932121</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.56298455580439</v>
+        <v>10.65549190460591</v>
       </c>
       <c r="C172">
-        <v>10.69907100342129</v>
+        <v>10.66969036670748</v>
       </c>
       <c r="D172">
-        <v>10.58655958236908</v>
+        <v>10.44019209347718</v>
       </c>
       <c r="E172">
-        <v>10.62069534058502</v>
+        <v>10.67429390503351</v>
       </c>
       <c r="F172">
-        <v>10.62027448080031</v>
+        <v>10.74806740071851</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.53768417400955</v>
+        <v>10.62974002210294</v>
       </c>
       <c r="C173">
-        <v>10.67322669036944</v>
+        <v>10.64392854292535</v>
       </c>
       <c r="D173">
-        <v>10.56110991604605</v>
+        <v>10.41563735897837</v>
       </c>
       <c r="E173">
-        <v>10.59518348810297</v>
+        <v>10.64982848714329</v>
       </c>
       <c r="F173">
-        <v>10.5947719978183</v>
+        <v>10.72174913164575</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.5123627699261</v>
+        <v>10.6039638438244</v>
       </c>
       <c r="C174">
-        <v>10.64735876719165</v>
+        <v>10.61814301627332</v>
       </c>
       <c r="D174">
-        <v>10.53563450394427</v>
+        <v>10.39106517764508</v>
       </c>
       <c r="E174">
-        <v>10.56964783553608</v>
+        <v>10.62534218388761</v>
       </c>
       <c r="F174">
-        <v>10.56924561158614</v>
+        <v>10.69541194077327</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.48702262836078</v>
+        <v>10.57816583859397</v>
       </c>
       <c r="C175">
-        <v>10.6214696866822</v>
+        <v>10.59233622660836</v>
       </c>
       <c r="D175">
-        <v>10.51013586494984</v>
+        <v>10.36647765949562</v>
       </c>
       <c r="E175">
-        <v>10.54409079538703</v>
+        <v>10.60083737702944</v>
       </c>
       <c r="F175">
-        <v>10.54369774210581</v>
+        <v>10.66905807106674</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.46166591237871</v>
+        <v>10.55234834087104</v>
       </c>
       <c r="C176">
-        <v>10.59556176236747</v>
+        <v>10.56651048923632</v>
       </c>
       <c r="D176">
-        <v>10.48461639284093</v>
+        <v>10.34187682267212</v>
       </c>
       <c r="E176">
-        <v>10.51851468988484</v>
+        <v>10.57631631633644</v>
       </c>
       <c r="F176">
-        <v>10.51813070012129</v>
+        <v>10.64268965490757</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.4362946800646</v>
+        <v>10.52651358394698</v>
       </c>
       <c r="C177">
-        <v>10.56963717820715</v>
+        <v>10.54066800219387</v>
       </c>
       <c r="D177">
-        <v>10.45907837309338</v>
+        <v>10.31726458841693</v>
       </c>
       <c r="E177">
-        <v>10.49292171649672</v>
+        <v>10.5517811537429</v>
       </c>
       <c r="F177">
-        <v>10.49254669031983</v>
+        <v>10.61630866550668</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.41091089776187</v>
+        <v>10.50066368532179</v>
       </c>
       <c r="C178">
-        <v>10.5436980337332</v>
+        <v>10.51481086260491</v>
       </c>
       <c r="D178">
-        <v>10.43352397350931</v>
+        <v>10.29264277184348</v>
       </c>
       <c r="E178">
-        <v>10.46731395351792</v>
+        <v>10.52723393339469</v>
       </c>
       <c r="F178">
-        <v>10.46694779922618</v>
+        <v>10.58991703291026</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.38551642041194</v>
+        <v>10.47480065260204</v>
       </c>
       <c r="C179">
-        <v>10.51774631694682</v>
+        <v>10.48894105432954</v>
       </c>
       <c r="D179">
-        <v>10.40795523980708</v>
+        <v>10.2680131124384</v>
       </c>
       <c r="E179">
-        <v>10.44169339398638</v>
+        <v>10.50267658914711</v>
       </c>
       <c r="F179">
-        <v>10.44133601655993</v>
+        <v>10.56351658818932</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.36011301081752</v>
+        <v>10.44892640588693</v>
       </c>
       <c r="C180">
-        <v>10.49178391356846</v>
+        <v>10.46306047221972</v>
       </c>
       <c r="D180">
-        <v>10.38237414881767</v>
+        <v>10.24337726153285</v>
       </c>
       <c r="E180">
-        <v>10.4160619220367</v>
+        <v>10.47811097305253</v>
       </c>
       <c r="F180">
-        <v>10.41571324111028</v>
+        <v>10.53710904368102</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.33470236056914</v>
+        <v>10.42304276001169</v>
       </c>
       <c r="C181">
-        <v>10.46581262845523</v>
+        <v>10.43717091318401</v>
       </c>
       <c r="D181">
-        <v>10.35678257710387</v>
+        <v>10.2187367809924</v>
       </c>
       <c r="E181">
-        <v>10.39042132522412</v>
+        <v>10.45353883949363</v>
       </c>
       <c r="F181">
-        <v>10.39008125862133</v>
+        <v>10.51069603469873</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.30928606453395</v>
+        <v>10.39715144430795</v>
       </c>
       <c r="C182">
-        <v>10.43983417195218</v>
+        <v>10.41127408387842</v>
       </c>
       <c r="D182">
-        <v>10.33118225582805</v>
+        <v>10.19409316860368</v>
       </c>
       <c r="E182">
-        <v>10.36477331330258</v>
+        <v>10.42896185343465</v>
       </c>
       <c r="F182">
-        <v>10.36444177563492</v>
+        <v>10.48427913308721</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.28386563928202</v>
+        <v>10.37125410749795</v>
       </c>
       <c r="C183">
-        <v>10.41385015211076</v>
+        <v>10.38537161165781</v>
       </c>
       <c r="D183">
-        <v>10.30557489288164</v>
+        <v>10.16944784358609</v>
       </c>
       <c r="E183">
-        <v>10.33911950179156</v>
+        <v>10.40438160752419</v>
       </c>
       <c r="F183">
-        <v>10.3387964242856</v>
+        <v>10.45785981794488</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.25844253696135</v>
+        <v>10.34535230415411</v>
       </c>
       <c r="C184">
-        <v>10.38786212325753</v>
+        <v>10.35946503589318</v>
       </c>
       <c r="D184">
-        <v>10.27996209975857</v>
+        <v>10.14480215097878</v>
       </c>
       <c r="E184">
-        <v>10.313461429243</v>
+        <v>10.3797996053053</v>
       </c>
       <c r="F184">
-        <v>10.31314674133956</v>
+        <v>10.43143948479776</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.23301812554628</v>
+        <v>10.3194475240872</v>
       </c>
       <c r="C185">
-        <v>10.36187155442551</v>
+        <v>10.33355582669303</v>
       </c>
       <c r="D185">
-        <v>10.25434537603254</v>
+        <v>10.12015737975517</v>
       </c>
       <c r="E185">
-        <v>10.28780056327402</v>
+        <v>10.35521728207259</v>
       </c>
       <c r="F185">
-        <v>10.28749419314244</v>
+        <v>10.40501947862765</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.20759370536383</v>
+        <v>10.29354117926816</v>
       </c>
       <c r="C186">
-        <v>10.33587982997291</v>
+        <v>10.30764537721431</v>
       </c>
       <c r="D186">
-        <v>10.22872616820215</v>
+        <v>10.09551474834516</v>
       </c>
       <c r="E186">
-        <v>10.26213828733124</v>
+        <v>10.33063600467297</v>
       </c>
       <c r="F186">
-        <v>10.26184018089552</v>
+        <v>10.37860107170106</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.18217052147367</v>
+        <v>10.26763460607448</v>
       </c>
       <c r="C187">
-        <v>10.30988828310405</v>
+        <v>10.28173501142378</v>
       </c>
       <c r="D187">
-        <v>10.20310585851892</v>
+        <v>10.07087541546769</v>
       </c>
       <c r="E187">
-        <v>10.23647592574398</v>
+        <v>10.30605706308549</v>
       </c>
       <c r="F187">
-        <v>10.23618602246731</v>
+        <v>10.35218546778791</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.15674974850156</v>
+        <v>10.2417290830763</v>
       </c>
       <c r="C188">
-        <v>10.28389817529682</v>
+        <v>10.25582599049497</v>
       </c>
       <c r="D188">
-        <v>10.17748574676152</v>
+        <v>10.04624048910253</v>
       </c>
       <c r="E188">
-        <v>10.21081473765406</v>
+        <v>10.28148169321124</v>
       </c>
       <c r="F188">
-        <v>10.2105329745349</v>
+        <v>10.32577382154864</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.1313325034635</v>
+        <v>10.21582581926266</v>
       </c>
       <c r="C189">
-        <v>10.25791069130386</v>
+        <v>10.22991950777327</v>
       </c>
       <c r="D189">
-        <v>10.15186706166882</v>
+        <v>10.02161101444415</v>
       </c>
       <c r="E189">
-        <v>10.1851559089735</v>
+        <v>10.256911066439</v>
       </c>
       <c r="F189">
-        <v>10.18488223806571</v>
+        <v>10.29936723155067</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.10591985379818</v>
+        <v>10.18992596405418</v>
       </c>
       <c r="C190">
-        <v>10.2319269743473</v>
+        <v>10.20401670246287</v>
       </c>
       <c r="D190">
-        <v>10.12625098676382</v>
+        <v>9.996987990158335</v>
       </c>
       <c r="E190">
-        <v>10.15950057843522</v>
+        <v>10.23234629230408</v>
       </c>
       <c r="F190">
-        <v>10.15923494533967</v>
+        <v>10.27296671504309</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.08051280631762</v>
+        <v>10.16403061396858</v>
       </c>
       <c r="C191">
-        <v>10.20594810561643</v>
+        <v>10.17811864969193</v>
       </c>
       <c r="D191">
-        <v>10.10063864131663</v>
+        <v>9.972372367449973</v>
       </c>
       <c r="E191">
-        <v>10.13384982510086</v>
+        <v>10.20778843219663</v>
       </c>
       <c r="F191">
-        <v>10.13359217482001</v>
+        <v>10.24657326737212</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.05511231866559</v>
+        <v>10.13814080289635</v>
       </c>
       <c r="C192">
-        <v>10.17997510398479</v>
+        <v>10.15222637394783</v>
       </c>
       <c r="D192">
-        <v>10.07503108421569</v>
+        <v>9.94776504298307</v>
       </c>
       <c r="E192">
-        <v>10.10820466666237</v>
+        <v>10.18323848990705</v>
       </c>
       <c r="F192">
-        <v>10.10795495612211</v>
+        <v>10.2201878282065</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.02971930639324</v>
+        <v>10.11225752034219</v>
       </c>
       <c r="C193">
-        <v>10.15400894836574</v>
+        <v>10.12634085360571</v>
       </c>
       <c r="D193">
-        <v>10.04942933144421</v>
+        <v>9.923166876753134</v>
       </c>
       <c r="E193">
-        <v>10.08256607991135</v>
+        <v>10.15869742042969</v>
       </c>
       <c r="F193">
-        <v>10.08232425965153</v>
+        <v>10.19381128059512</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.00433463271817</v>
+        <v>10.08638170452654</v>
       </c>
       <c r="C194">
-        <v>10.12805056614754</v>
+        <v>10.10046302034955</v>
       </c>
       <c r="D194">
-        <v>10.02383434968759</v>
+        <v>9.898578684508056</v>
       </c>
       <c r="E194">
-        <v>10.05693498875864</v>
+        <v>10.13416613498249</v>
       </c>
       <c r="F194">
-        <v>10.05670100953181</v>
+        <v>10.16744446949492</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.978959118993028</v>
+        <v>10.06051424243814</v>
       </c>
       <c r="C195">
-        <v>10.10210082910466</v>
+        <v>10.07459373414616</v>
       </c>
       <c r="D195">
-        <v>9.998247032830239</v>
+        <v>9.874001236976323</v>
       </c>
       <c r="E195">
-        <v>10.03131226697121</v>
+        <v>10.10964549261728</v>
       </c>
       <c r="F195">
-        <v>10.03108608869869</v>
+        <v>10.14108820238499</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.953593550333519</v>
+        <v>10.03465598266913</v>
       </c>
       <c r="C196">
-        <v>10.07616057663856</v>
+        <v>10.04873384437585</v>
       </c>
       <c r="D196">
-        <v>9.972668255598501</v>
+        <v>9.849435272895795</v>
       </c>
       <c r="E196">
-        <v>10.00569875133022</v>
+        <v>10.08513631622459</v>
       </c>
       <c r="F196">
-        <v>10.00548032922087</v>
+        <v>10.1147432384388</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.928238665904615</v>
+        <v>10.00880772769088</v>
       </c>
       <c r="C197">
-        <v>10.05023060364782</v>
+        <v>10.02288415340044</v>
       </c>
       <c r="D197">
-        <v>9.947098844555114</v>
+        <v>9.824881491937877</v>
       </c>
       <c r="E197">
-        <v>9.980095232190079</v>
+        <v>10.06063938622508</v>
       </c>
       <c r="F197">
-        <v>9.979884523212441</v>
+        <v>10.08841029472496</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.902895169130563</v>
+        <v>9.982970238949143</v>
       </c>
       <c r="C198">
-        <v>10.02431165712023</v>
+        <v>9.997045417764488</v>
       </c>
       <c r="D198">
-        <v>9.921539576996819</v>
+        <v>9.800340556430783</v>
       </c>
       <c r="E198">
-        <v>9.954502459401853</v>
+        <v>10.03615544035909</v>
       </c>
       <c r="F198">
-        <v>9.954299427691408</v>
+        <v>10.06209006264736</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.877563732487042</v>
+        <v>9.957144243368484</v>
       </c>
       <c r="C199">
-        <v>9.998404456340184</v>
+        <v>9.971218326615569</v>
       </c>
       <c r="D199">
-        <v>9.895991193865845</v>
+        <v>9.775813100654776</v>
       </c>
       <c r="E199">
-        <v>9.928921149333119</v>
+        <v>10.01168518497164</v>
       </c>
       <c r="F199">
-        <v>9.928725755143208</v>
+        <v>10.03578319425427</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.852244988808028</v>
+        <v>9.931330425999729</v>
       </c>
       <c r="C200">
-        <v>9.972509682666239</v>
+        <v>9.945403579639612</v>
       </c>
       <c r="D200">
-        <v>9.870454405417924</v>
+        <v>9.751299724067165</v>
       </c>
       <c r="E200">
-        <v>9.903351977452884</v>
+        <v>9.987229288308081</v>
       </c>
       <c r="F200">
-        <v>9.903164183456864</v>
+        <v>10.00949030313877</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.826939540291871</v>
+        <v>9.905529441076945</v>
       </c>
       <c r="C201">
-        <v>9.946627974359192</v>
+        <v>9.919601829807261</v>
       </c>
       <c r="D201">
-        <v>9.844929880418041</v>
+        <v>9.726800995931121</v>
       </c>
       <c r="E201">
-        <v>9.877795587110707</v>
+        <v>9.962788384368608</v>
       </c>
       <c r="F201">
-        <v>9.87761536088834</v>
+        <v>9.983211979927363</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.801647962117075</v>
+        <v>9.879741909581139</v>
       </c>
       <c r="C202">
-        <v>9.920759947395647</v>
+        <v>9.893813682016731</v>
       </c>
       <c r="D202">
-        <v>9.819418246225919</v>
+        <v>9.702317460303931</v>
       </c>
       <c r="E202">
-        <v>9.852252591275485</v>
+        <v>9.938363078854294</v>
       </c>
       <c r="F202">
-        <v>9.852079897452978</v>
+        <v>9.95694878374373</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.77637079540656</v>
+        <v>9.85396841744431</v>
       </c>
       <c r="C203">
-        <v>9.894906184748889</v>
+        <v>9.868039707106828</v>
       </c>
       <c r="D203">
-        <v>9.793920110900837</v>
+        <v>9.677849630131545</v>
       </c>
       <c r="E203">
-        <v>9.826723566362977</v>
+        <v>9.913953939369982</v>
       </c>
       <c r="F203">
-        <v>9.826558373060832</v>
+        <v>9.930701236231767</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.75110855503592</v>
+        <v>9.828209524983729</v>
       </c>
       <c r="C204">
-        <v>9.869067232491188</v>
+        <v>9.842280467215542</v>
       </c>
       <c r="D204">
-        <v>9.768436047969665</v>
+        <v>9.653397994726118</v>
       </c>
       <c r="E204">
-        <v>9.801209064317291</v>
+        <v>9.889561511139579</v>
       </c>
       <c r="F204">
-        <v>9.801051342006527</v>
+        <v>9.904469842693018</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.725861732386704</v>
+        <v>9.80246576012004</v>
       </c>
       <c r="C205">
-        <v>9.843243617020999</v>
+        <v>9.816536489342223</v>
       </c>
       <c r="D205">
-        <v>9.742966594901583</v>
+        <v>9.62896302008201</v>
       </c>
       <c r="E205">
-        <v>9.775709608619417</v>
+        <v>9.865186313673005</v>
       </c>
       <c r="F205">
-        <v>9.775559325875552</v>
+        <v>9.87825508075038</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.700630789768542</v>
+        <v>9.776737622187476</v>
       </c>
       <c r="C206">
-        <v>9.817435836586277</v>
+        <v>9.790808258448699</v>
       </c>
       <c r="D206">
-        <v>9.717512270326468</v>
+        <v>9.604545140661987</v>
       </c>
       <c r="E206">
-        <v>9.750225691703204</v>
+        <v>9.840828842378379</v>
       </c>
       <c r="F206">
-        <v>9.750082820091063</v>
+        <v>9.852057398042495</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.675416167029599</v>
+        <v>9.751025590831206</v>
       </c>
       <c r="C207">
-        <v>9.791644357558894</v>
+        <v>9.765096246359828</v>
       </c>
       <c r="D207">
-        <v>9.692073565149107</v>
+        <v>9.580144777808698</v>
       </c>
       <c r="E207">
-        <v>9.724757785691541</v>
+        <v>9.816489552579789</v>
       </c>
       <c r="F207">
-        <v>9.724622298024917</v>
+        <v>9.825877223757994</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.650218283616178</v>
+        <v>9.725330121578006</v>
       </c>
       <c r="C208">
-        <v>9.76586962924266</v>
+        <v>9.739400901742174</v>
       </c>
       <c r="D208">
-        <v>9.666650938164221</v>
+        <v>9.555762330786441</v>
       </c>
       <c r="E208">
-        <v>9.699306337102458</v>
+        <v>9.792168890911094</v>
       </c>
       <c r="F208">
-        <v>9.699178205226826</v>
+        <v>9.799714966427873</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.625037533884367</v>
+        <v>9.699651641982452</v>
       </c>
       <c r="C209">
-        <v>9.740112076775629</v>
+        <v>9.713722648890869</v>
       </c>
       <c r="D209">
-        <v>9.641244830277795</v>
+        <v>9.531398180857492</v>
       </c>
       <c r="E209">
-        <v>9.673871766661968</v>
+        <v>9.767867285832306</v>
       </c>
       <c r="F209">
-        <v>9.673750964605368</v>
+        <v>9.773571009408043</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.599874293060822</v>
+        <v>9.673990550051428</v>
       </c>
       <c r="C210">
-        <v>9.71437209837714</v>
+        <v>9.688061886652489</v>
       </c>
       <c r="D210">
-        <v>9.61585566083818</v>
+        <v>9.507052676377471</v>
       </c>
       <c r="E210">
-        <v>9.648454477258364</v>
+        <v>9.743585145490066</v>
       </c>
       <c r="F210">
-        <v>9.648340980059698</v>
+        <v>9.747445715728935</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.574728918806825</v>
+        <v>9.648347242138668</v>
       </c>
       <c r="C211">
-        <v>9.688650076922428</v>
+        <v>9.662418999734532</v>
       </c>
       <c r="D211">
-        <v>9.590483824279598</v>
+        <v>9.482726160358423</v>
       </c>
       <c r="E211">
-        <v>9.623054847691657</v>
+        <v>9.71932283187525</v>
       </c>
       <c r="F211">
-        <v>9.622948631600282</v>
+        <v>9.72133943413295</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.549601747056538</v>
+        <v>9.622722091092765</v>
       </c>
       <c r="C212">
-        <v>9.662946374842788</v>
+        <v>9.636794353168291</v>
       </c>
       <c r="D212">
-        <v>9.565129693940333</v>
+        <v>9.458418962648448</v>
       </c>
       <c r="E212">
-        <v>9.597673234780547</v>
+        <v>9.695080705322518</v>
       </c>
       <c r="F212">
-        <v>9.597574279648223</v>
+        <v>9.695252492628512</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.524493097449467</v>
+        <v>9.597115445802658</v>
       </c>
       <c r="C213">
-        <v>9.637261331524451</v>
+        <v>9.611188288901957</v>
       </c>
       <c r="D213">
-        <v>9.539793628342991</v>
+        <v>9.434131396884201</v>
       </c>
       <c r="E213">
-        <v>9.572309982582286</v>
+        <v>9.670859117812407</v>
       </c>
       <c r="F213">
-        <v>9.572218268457162</v>
+        <v>9.669185198767325</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.499403274474451</v>
+        <v>9.57152761170158</v>
       </c>
       <c r="C214">
-        <v>9.611595272694808</v>
+        <v>9.585601121077026</v>
       </c>
       <c r="D214">
-        <v>9.514475965312124</v>
+        <v>9.409863744845302</v>
       </c>
       <c r="E214">
-        <v>9.546965417101202</v>
+        <v>9.646658399747677</v>
       </c>
       <c r="F214">
-        <v>9.546880921686856</v>
+        <v>9.643137849231714</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.474332563778827</v>
+        <v>9.545958917475307</v>
       </c>
       <c r="C215">
-        <v>9.585948506922083</v>
+        <v>9.56003316458423</v>
       </c>
       <c r="D215">
-        <v>9.489177020009231</v>
+        <v>9.385616273476469</v>
       </c>
       <c r="E215">
-        <v>9.521639847002316</v>
+        <v>9.622478848273273</v>
       </c>
       <c r="F215">
-        <v>9.521562546034433</v>
+        <v>9.617110723628203</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.449281237116542</v>
+        <v>9.520409663156736</v>
       </c>
       <c r="C216">
-        <v>9.560321323016556</v>
+        <v>9.534484712934896</v>
       </c>
       <c r="D216">
-        <v>9.463897098209724</v>
+        <v>9.361389256614537</v>
       </c>
       <c r="E216">
-        <v>9.496333550252414</v>
+        <v>9.598320751668005</v>
       </c>
       <c r="F216">
-        <v>9.496263434424247</v>
+        <v>9.591104082111949</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.424249553139781</v>
+        <v>9.494880132541544</v>
       </c>
       <c r="C217">
-        <v>9.534713997581695</v>
+        <v>9.508956039625547</v>
       </c>
       <c r="D217">
-        <v>9.438636488227335</v>
+        <v>9.337182947134796</v>
       </c>
       <c r="E217">
-        <v>9.471046812014384</v>
+        <v>9.574184393883327</v>
       </c>
       <c r="F217">
-        <v>9.47098386200723</v>
+        <v>9.565118176389996</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.399237751767286</v>
+        <v>9.469370568883566</v>
       </c>
       <c r="C218">
-        <v>9.50912679283018</v>
+        <v>9.483447404950075</v>
       </c>
       <c r="D218">
-        <v>9.413395457409258</v>
+        <v>9.312997579404326</v>
       </c>
       <c r="E218">
-        <v>9.445779897815843</v>
+        <v>9.550070039850215</v>
       </c>
       <c r="F218">
-        <v>9.445724089215165</v>
+        <v>9.539153243639362</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9.374246063029272</v>
+        <v>9.443881235075038</v>
       </c>
       <c r="C219">
-        <v>9.483559950801864</v>
+        <v>9.457959060034419</v>
       </c>
       <c r="D219">
-        <v>9.38817426528402</v>
+        <v>9.288833362185297</v>
       </c>
       <c r="E219">
-        <v>9.420533062152632</v>
+        <v>9.525977933645294</v>
       </c>
       <c r="F219">
-        <v>9.420484364726976</v>
+        <v>9.513209504864934</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.349274706575462</v>
+        <v>9.418412369772232</v>
       </c>
       <c r="C220">
-        <v>9.458013705873478</v>
+        <v>9.432491241981706</v>
       </c>
       <c r="D220">
-        <v>9.362973156340459</v>
+        <v>9.264690516668216</v>
       </c>
       <c r="E220">
-        <v>9.395306516819906</v>
+        <v>9.501908307256999</v>
       </c>
       <c r="F220">
-        <v>9.395264920058187</v>
+        <v>9.487287172267148</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.32432389070012</v>
+        <v>9.392964199838467</v>
       </c>
       <c r="C221">
-        <v>9.432488280683152</v>
+        <v>9.407044163689665</v>
       </c>
       <c r="D221">
-        <v>9.337792359012038</v>
+        <v>9.240569244639373</v>
       </c>
       <c r="E221">
-        <v>9.370100490487754</v>
+        <v>9.477861387667783</v>
       </c>
       <c r="F221">
-        <v>9.370065974517919</v>
+        <v>9.461386446564191</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.299393810857623</v>
+        <v>9.367536924278022</v>
       </c>
       <c r="C222">
-        <v>9.406983886692649</v>
+        <v>9.381618037356052</v>
       </c>
       <c r="D222">
-        <v>9.312632090740987</v>
+        <v>9.216469737034803</v>
       </c>
       <c r="E222">
-        <v>9.344915198715954</v>
+        <v>9.453837387386596</v>
       </c>
       <c r="F222">
-        <v>9.344887739302823</v>
+        <v>9.435507515436473</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.274484641352849</v>
+        <v>9.342130749009316</v>
       </c>
       <c r="C223">
-        <v>9.381500721383089</v>
+        <v>9.356213062058933</v>
       </c>
       <c r="D223">
-        <v>9.287492558892319</v>
+        <v>9.192392162980401</v>
       </c>
       <c r="E223">
-        <v>9.319750843955587</v>
+        <v>9.429836507094969</v>
       </c>
       <c r="F223">
-        <v>9.319730414096028</v>
+        <v>9.409650556633355</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.249596564771249</v>
+        <v>9.316745863197978</v>
       </c>
       <c r="C224">
-        <v>9.356038961534841</v>
+        <v>9.330829425202527</v>
       </c>
       <c r="D224">
-        <v>9.262373957945863</v>
+        <v>9.168336697359333</v>
       </c>
       <c r="E224">
-        <v>9.294607606457344</v>
+        <v>9.405858937335053</v>
       </c>
       <c r="F224">
-        <v>9.29459418898414</v>
+        <v>9.383815739732425</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9.224729749495214</v>
+        <v>9.291382446068736</v>
       </c>
       <c r="C225">
-        <v>9.330598792735669</v>
+        <v>9.305467300658277</v>
       </c>
       <c r="D225">
-        <v>9.237276470367151</v>
+        <v>9.144303501046185</v>
       </c>
       <c r="E225">
-        <v>9.269485655043704</v>
+        <v>9.381904861468968</v>
       </c>
       <c r="F225">
-        <v>9.269479227301371</v>
+        <v>9.358003222284651</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>9.199884356871523</v>
+        <v>9.266040665309667</v>
       </c>
       <c r="C226">
-        <v>9.305180385959458</v>
+        <v>9.280126857158448</v>
       </c>
       <c r="D226">
-        <v>9.212200271390119</v>
+        <v>9.120292726781981</v>
       </c>
       <c r="E226">
-        <v>9.244385163881807</v>
+        <v>9.357974453864502</v>
       </c>
       <c r="F226">
-        <v>9.244385705157857</v>
+        <v>9.332213150858653</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>9.175060519886861</v>
+        <v>9.240720681931622</v>
       </c>
       <c r="C227">
-        <v>9.279783905132499</v>
+        <v>9.254808253212655</v>
       </c>
       <c r="D227">
-        <v>9.187145525239981</v>
+        <v>9.096304517406306</v>
       </c>
       <c r="E227">
-        <v>9.219306291667952</v>
+        <v>9.334067874335648</v>
       </c>
       <c r="F227">
-        <v>9.219313783622397</v>
+        <v>9.306445668886086</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9.150258375783199</v>
+        <v>9.215422648836153</v>
       </c>
       <c r="C228">
-        <v>9.254409483650681</v>
+        <v>9.229511636466029</v>
       </c>
       <c r="D228">
-        <v>9.162112381569266</v>
+        <v>9.072339010837375</v>
       </c>
       <c r="E228">
-        <v>9.194249186539739</v>
+        <v>9.310185269790024</v>
       </c>
       <c r="F228">
-        <v>9.194263616920741</v>
+        <v>9.280700910828081</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9.125478062994965</v>
+        <v>9.19014671147192</v>
       </c>
       <c r="C229">
-        <v>9.229057260918836</v>
+        <v>9.204237143894648</v>
       </c>
       <c r="D229">
-        <v>9.137100988947083</v>
+        <v>9.048396338132374</v>
       </c>
       <c r="E229">
-        <v>9.169213979497744</v>
+        <v>9.286326791271932</v>
       </c>
       <c r="F229">
-        <v>9.16923534086555</v>
+        <v>9.254979004657798</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.100719707710782</v>
+        <v>9.164892996220303</v>
       </c>
       <c r="C230">
-        <v>9.20372737756621</v>
+        <v>9.178984909668642</v>
       </c>
       <c r="D230">
-        <v>9.112111486124546</v>
+        <v>9.024476624254619</v>
       </c>
       <c r="E230">
-        <v>9.144200806565827</v>
+        <v>9.262492577826178</v>
       </c>
       <c r="F230">
-        <v>9.144229074575765</v>
+        <v>9.229280063853237</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.075983427379931</v>
+        <v>9.139661628475608</v>
       </c>
       <c r="C231">
-        <v>9.178419961501712</v>
+        <v>9.153755058880149</v>
       </c>
       <c r="D231">
-        <v>9.087144005095265</v>
+        <v>9.000579972326301</v>
       </c>
       <c r="E231">
-        <v>9.119209791710531</v>
+        <v>9.238682759679978</v>
       </c>
       <c r="F231">
-        <v>9.119244954870833</v>
+        <v>9.203604196005561</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.051269315016766</v>
+        <v>9.11445273070048</v>
       </c>
       <c r="C232">
-        <v>9.153135132288165</v>
+        <v>9.128547707131595</v>
       </c>
       <c r="D232">
-        <v>9.062198668249913</v>
+        <v>8.976706488223313</v>
       </c>
       <c r="E232">
-        <v>9.094241052082701</v>
+        <v>9.214897457763973</v>
       </c>
       <c r="F232">
-        <v>9.094283102166555</v>
+        <v>9.177951512400615</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.026577482327065</v>
+        <v>9.089266416061321</v>
       </c>
       <c r="C233">
-        <v>9.127872982657415</v>
+        <v>9.103362964574465</v>
       </c>
       <c r="D233">
-        <v>9.037275580664907</v>
+        <v>8.952856281716409</v>
       </c>
       <c r="E233">
-        <v>9.069294696560664</v>
+        <v>9.191136791917934</v>
       </c>
       <c r="F233">
-        <v>9.069343631294595</v>
+        <v>9.152322115021562</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.001908026203225</v>
+        <v>9.064102788495491</v>
       </c>
       <c r="C234">
-        <v>9.102633626360076</v>
+        <v>9.078200936280725</v>
       </c>
       <c r="D234">
-        <v>9.012374859406671</v>
+        <v>8.929029452981318</v>
       </c>
       <c r="E234">
-        <v>9.044370830117835</v>
+        <v>9.167400874319775</v>
       </c>
       <c r="F234">
-        <v>9.044426631969817</v>
+        <v>9.126716101636386</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>8.977261038165869</v>
+        <v>9.038961946134457</v>
       </c>
       <c r="C235">
-        <v>9.077417161430009</v>
+        <v>9.053061721051286</v>
       </c>
       <c r="D235">
-        <v>8.987496609776619</v>
+        <v>8.90522609875058</v>
       </c>
       <c r="E235">
-        <v>9.019469551836233</v>
+        <v>9.14368980904092</v>
       </c>
       <c r="F235">
-        <v>9.019532205525893</v>
+        <v>9.101133545770882</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>8.952636599111006</v>
+        <v>9.013843984514665</v>
       </c>
       <c r="C236">
-        <v>9.052223680430982</v>
+        <v>9.027945405891289</v>
       </c>
       <c r="D236">
-        <v>8.962640932643048</v>
+        <v>8.881446312975122</v>
       </c>
       <c r="E236">
-        <v>8.994590955829237</v>
+        <v>9.120003688735972</v>
       </c>
       <c r="F236">
-        <v>8.994660446730697</v>
+        <v>9.075574526089854</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8.928034786434548</v>
+        <v>8.988748992717454</v>
       </c>
       <c r="C237">
-        <v>9.027053265342527</v>
+        <v>9.002852078913731</v>
       </c>
       <c r="D237">
-        <v>8.937807915923996</v>
+        <v>8.857690170733841</v>
       </c>
       <c r="E237">
-        <v>8.969735116264621</v>
+        <v>9.096342609944136</v>
       </c>
       <c r="F237">
-        <v>8.969811442632224</v>
+        <v>9.050039127025913</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8.903455676497568</v>
+        <v>8.963677050858951</v>
       </c>
       <c r="C238">
-        <v>9.001905992830723</v>
+        <v>8.977781821111707</v>
       </c>
       <c r="D238">
-        <v>8.912997626553452</v>
+        <v>8.833957704820071</v>
       </c>
       <c r="E238">
-        <v>8.944902108790208</v>
+        <v>9.072706660723211</v>
       </c>
       <c r="F238">
-        <v>8.944985273366461</v>
+        <v>9.024527422247152</v>
       </c>
     </row>
   </sheetData>
